--- a/VIDA2/data/BELO HORIZONTE.xlsx
+++ b/VIDA2/data/BELO HORIZONTE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>3106200005001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3106200005001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1.98</v>
+        <v>15.278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.742</v>
+        <v>131.80296656518</v>
       </c>
       <c r="E2" t="n">
-        <v>15.278</v>
-      </c>
-      <c r="F2" t="n">
-        <v>131.80296656518</v>
-      </c>
-      <c r="G2" t="n">
         <v>50.00675168718935</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3106200005002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3106200005002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1.888</v>
+        <v>14.382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.664</v>
+        <v>136.8833506115637</v>
       </c>
       <c r="E3" t="n">
-        <v>14.382</v>
-      </c>
-      <c r="F3" t="n">
-        <v>136.8833506115637</v>
-      </c>
-      <c r="G3" t="n">
         <v>47.9085310952938</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3106200005003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3106200005003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2.37</v>
+        <v>17.428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.866</v>
+        <v>138.4084797813735</v>
       </c>
       <c r="E4" t="n">
-        <v>17.428</v>
-      </c>
-      <c r="F4" t="n">
-        <v>138.4084797813735</v>
-      </c>
-      <c r="G4" t="n">
         <v>50.86146583289389</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3106200005004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3106200005004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1.258</v>
+        <v>10.038</v>
       </c>
       <c r="D5" t="n">
-        <v>0.454</v>
+        <v>127.7699679233734</v>
       </c>
       <c r="E5" t="n">
-        <v>10.038</v>
-      </c>
-      <c r="F5" t="n">
-        <v>127.7699679233734</v>
-      </c>
-      <c r="G5" t="n">
         <v>45.68929043952262</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3106200005005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3106200005005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1.64</v>
+        <v>13.222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.626</v>
+        <v>127.5203240938031</v>
       </c>
       <c r="E6" t="n">
-        <v>13.222</v>
-      </c>
-      <c r="F6" t="n">
-        <v>127.5203240938031</v>
-      </c>
-      <c r="G6" t="n">
         <v>49.29909326961751</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>3106200005006</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3106200005006</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1.256</v>
+        <v>9.74</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>136.8105580693816</v>
       </c>
       <c r="E7" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F7" t="n">
-        <v>136.8105580693816</v>
-      </c>
-      <c r="G7" t="n">
         <v>49.36470882059116</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>3106200005007</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3106200005007</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1.936</v>
+        <v>14.908</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6879999999999999</v>
+        <v>136.501462773702</v>
       </c>
       <c r="E8" t="n">
-        <v>14.908</v>
-      </c>
-      <c r="F8" t="n">
-        <v>136.501462773702</v>
-      </c>
-      <c r="G8" t="n">
         <v>47.81850729556408</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>3106200005008</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3106200005008</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1.46</v>
+        <v>11.56</v>
       </c>
       <c r="D9" t="n">
-        <v>0.466</v>
+        <v>134.042410748044</v>
       </c>
       <c r="E9" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="F9" t="n">
-        <v>134.042410748044</v>
-      </c>
-      <c r="G9" t="n">
         <v>42.26294291625423</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>3106200005009</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3106200005009</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1.188</v>
+        <v>10.356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.398</v>
+        <v>117.87302321002</v>
       </c>
       <c r="E10" t="n">
-        <v>10.356</v>
-      </c>
-      <c r="F10" t="n">
-        <v>117.87302321002</v>
-      </c>
-      <c r="G10" t="n">
         <v>40.73948416564512</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>3106200005010</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3106200005010</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>1.14</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.358</v>
+        <v>129.8946121645811</v>
       </c>
       <c r="E11" t="n">
-        <v>9.412000000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>129.8946121645811</v>
-      </c>
-      <c r="G11" t="n">
         <v>41.08876935757741</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>3106200005011</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3106200005011</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1.1</v>
+        <v>10.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.416</v>
+        <v>115.5756496771202</v>
       </c>
       <c r="E12" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>115.5756496771202</v>
-      </c>
-      <c r="G12" t="n">
         <v>43.59508040978626</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>3106200005012</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3106200005012</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.518</v>
+        <v>12.51</v>
       </c>
       <c r="D13" t="n">
-        <v>0.53</v>
+        <v>123.413611292986</v>
       </c>
       <c r="E13" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F13" t="n">
-        <v>123.413611292986</v>
-      </c>
-      <c r="G13" t="n">
         <v>43.27326682866795</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>3106200005013</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3106200005013</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9320000000000001</v>
+        <v>8.554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.348</v>
+        <v>118.4241317076455</v>
       </c>
       <c r="E14" t="n">
-        <v>8.554</v>
-      </c>
-      <c r="F14" t="n">
-        <v>118.4241317076455</v>
-      </c>
-      <c r="G14" t="n">
         <v>44.16436484052582</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>3106200005014</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3106200005014</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1.61</v>
+        <v>13.114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.586</v>
+        <v>129.914836518905</v>
       </c>
       <c r="E15" t="n">
-        <v>13.114</v>
-      </c>
-      <c r="F15" t="n">
-        <v>129.914836518905</v>
-      </c>
-      <c r="G15" t="n">
         <v>45.84272757349886</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>3106200005015</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3106200005015</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1.81</v>
+        <v>15.798</v>
       </c>
       <c r="D16" t="n">
-        <v>0.672</v>
+        <v>117.750285608004</v>
       </c>
       <c r="E16" t="n">
-        <v>15.798</v>
-      </c>
-      <c r="F16" t="n">
-        <v>117.750285608004</v>
-      </c>
-      <c r="G16" t="n">
         <v>43.68182368565461</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>3106200005016</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3106200005016</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1.322</v>
+        <v>11.03</v>
       </c>
       <c r="D17" t="n">
-        <v>0.488</v>
+        <v>125.6278716639396</v>
       </c>
       <c r="E17" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="F17" t="n">
-        <v>125.6278716639396</v>
-      </c>
-      <c r="G17" t="n">
         <v>45.90131611594455</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>3106200005017</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3106200005017</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2.766</v>
+        <v>21.254</v>
       </c>
       <c r="D18" t="n">
-        <v>0.978</v>
+        <v>131.6651794487678</v>
       </c>
       <c r="E18" t="n">
-        <v>21.254</v>
-      </c>
-      <c r="F18" t="n">
-        <v>131.6651794487678</v>
-      </c>
-      <c r="G18" t="n">
         <v>46.41490143646914</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>3106200005018</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3106200005018</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1.858</v>
+        <v>14.518</v>
       </c>
       <c r="D19" t="n">
-        <v>0.636</v>
+        <v>132.6382589446569</v>
       </c>
       <c r="E19" t="n">
-        <v>14.518</v>
-      </c>
-      <c r="F19" t="n">
-        <v>132.6382589446569</v>
-      </c>
-      <c r="G19" t="n">
         <v>45.9811452080472</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>3106200005019</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3106200005019</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1.562</v>
+        <v>13.522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.616</v>
+        <v>119.9076093810918</v>
       </c>
       <c r="E20" t="n">
-        <v>13.522</v>
-      </c>
-      <c r="F20" t="n">
-        <v>119.9076093810918</v>
-      </c>
-      <c r="G20" t="n">
         <v>47.25057414766321</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>3106200005020</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3106200005020</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>1.228</v>
+        <v>9.856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.478</v>
+        <v>131.6489906722104</v>
       </c>
       <c r="E21" t="n">
-        <v>9.856</v>
-      </c>
-      <c r="F21" t="n">
-        <v>131.6489906722104</v>
-      </c>
-      <c r="G21" t="n">
         <v>50.40494811346201</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>3106200005021</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3106200005021</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>1.138</v>
+        <v>9.41</v>
       </c>
       <c r="D22" t="n">
-        <v>0.434</v>
+        <v>130.5241513732225</v>
       </c>
       <c r="E22" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="F22" t="n">
-        <v>130.5241513732225</v>
-      </c>
-      <c r="G22" t="n">
         <v>48.97195561576363</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>3106200005022</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3106200005022</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1.86</v>
+        <v>15.362</v>
       </c>
       <c r="D23" t="n">
-        <v>0.672</v>
+        <v>122.9340391274703</v>
       </c>
       <c r="E23" t="n">
-        <v>15.362</v>
-      </c>
-      <c r="F23" t="n">
-        <v>122.9340391274703</v>
-      </c>
-      <c r="G23" t="n">
         <v>44.70224311282716</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>3106200005023</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3106200005023</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1.56</v>
+        <v>12.076</v>
       </c>
       <c r="D24" t="n">
-        <v>0.546</v>
+        <v>136.5964329470353</v>
       </c>
       <c r="E24" t="n">
-        <v>12.076</v>
-      </c>
-      <c r="F24" t="n">
-        <v>136.5964329470353</v>
-      </c>
-      <c r="G24" t="n">
         <v>47.73424678438475</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>3106200005024</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3106200005024</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>1.522</v>
+        <v>12.402</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5659999999999999</v>
+        <v>126.6183830310967</v>
       </c>
       <c r="E25" t="n">
-        <v>12.402</v>
-      </c>
-      <c r="F25" t="n">
-        <v>126.6183830310967</v>
-      </c>
-      <c r="G25" t="n">
         <v>46.79914608581318</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>3106200005025</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3106200005025</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1.29</v>
+        <v>10.23</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468</v>
+        <v>132.1211402460629</v>
       </c>
       <c r="E26" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="F26" t="n">
-        <v>132.1211402460629</v>
-      </c>
-      <c r="G26" t="n">
         <v>48.0979337226241</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>3106200005026</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3106200005026</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>2.194</v>
+        <v>16.684</v>
       </c>
       <c r="D27" t="n">
-        <v>0.75</v>
+        <v>135.7068473928339</v>
       </c>
       <c r="E27" t="n">
-        <v>16.684</v>
-      </c>
-      <c r="F27" t="n">
-        <v>135.7068473928339</v>
-      </c>
-      <c r="G27" t="n">
         <v>46.20895607733132</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>3106200005027</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3106200005027</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1.208</v>
+        <v>8.992000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4</v>
+        <v>144.2707316333476</v>
       </c>
       <c r="E28" t="n">
-        <v>8.992000000000001</v>
-      </c>
-      <c r="F28" t="n">
-        <v>144.2707316333476</v>
-      </c>
-      <c r="G28" t="n">
         <v>47.06545399045395</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>3106200005028</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3106200005028</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1.498</v>
+        <v>12.31</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5639999999999999</v>
+        <v>125.4571172807241</v>
       </c>
       <c r="E29" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F29" t="n">
-        <v>125.4571172807241</v>
-      </c>
-      <c r="G29" t="n">
         <v>47.37207036169882</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>3106200005029</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3106200005029</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1.174</v>
+        <v>9.526</v>
       </c>
       <c r="D30" t="n">
-        <v>0.374</v>
+        <v>125.4077834274428</v>
       </c>
       <c r="E30" t="n">
-        <v>9.526</v>
-      </c>
-      <c r="F30" t="n">
-        <v>125.4077834274428</v>
-      </c>
-      <c r="G30" t="n">
         <v>39.98282705426666</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>3106200005030</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3106200005030</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>2.054</v>
+        <v>17.048</v>
       </c>
       <c r="D31" t="n">
-        <v>0.758</v>
+        <v>124.0929485836034</v>
       </c>
       <c r="E31" t="n">
-        <v>17.048</v>
-      </c>
-      <c r="F31" t="n">
-        <v>124.0929485836034</v>
-      </c>
-      <c r="G31" t="n">
         <v>46.30817467178166</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>3106200005031</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3106200005031</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>1.806</v>
+        <v>13.736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.62</v>
+        <v>135.2584238602815</v>
       </c>
       <c r="E32" t="n">
-        <v>13.736</v>
-      </c>
-      <c r="F32" t="n">
-        <v>135.2584238602815</v>
-      </c>
-      <c r="G32" t="n">
         <v>46.51383877784466</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>3106200005032</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3106200005032</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>2.016</v>
+        <v>15.06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.724</v>
+        <v>138.6757336345321</v>
       </c>
       <c r="E33" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="F33" t="n">
-        <v>138.6757336345321</v>
-      </c>
-      <c r="G33" t="n">
         <v>49.17320719191965</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>3106200005033</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3106200005033</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1.184</v>
+        <v>9.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.44</v>
+        <v>127.4472004689496</v>
       </c>
       <c r="E34" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F34" t="n">
-        <v>127.4472004689496</v>
-      </c>
-      <c r="G34" t="n">
         <v>46.91368402838992</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>3106200005034</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3106200005034</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1.674</v>
+        <v>12.932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.59</v>
+        <v>136.6370185576377</v>
       </c>
       <c r="E35" t="n">
-        <v>12.932</v>
-      </c>
-      <c r="F35" t="n">
-        <v>136.6370185576377</v>
-      </c>
-      <c r="G35" t="n">
         <v>48.29456587272374</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>3106200005035</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3106200005035</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>1.356</v>
+        <v>11.138</v>
       </c>
       <c r="D36" t="n">
-        <v>0.452</v>
+        <v>132.1814252482982</v>
       </c>
       <c r="E36" t="n">
-        <v>11.138</v>
-      </c>
-      <c r="F36" t="n">
-        <v>132.1814252482982</v>
-      </c>
-      <c r="G36" t="n">
         <v>45.07539950589484</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>3106200005036</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3106200005036</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>1.336</v>
+        <v>11.772</v>
       </c>
       <c r="D37" t="n">
-        <v>0.49</v>
+        <v>118.4562895137199</v>
       </c>
       <c r="E37" t="n">
-        <v>11.772</v>
-      </c>
-      <c r="F37" t="n">
-        <v>118.4562895137199</v>
-      </c>
-      <c r="G37" t="n">
         <v>45.1326833211508</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>3106200005037</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3106200005037</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>1.458</v>
+        <v>11.638</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5659999999999999</v>
+        <v>133.2865271192516</v>
       </c>
       <c r="E38" t="n">
-        <v>11.638</v>
-      </c>
-      <c r="F38" t="n">
-        <v>133.2865271192516</v>
-      </c>
-      <c r="G38" t="n">
         <v>51.81298075849161</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>3106200005038</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3106200005038</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1.252</v>
+        <v>9.752000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.422</v>
+        <v>136.4436021494844</v>
       </c>
       <c r="E39" t="n">
-        <v>9.752000000000001</v>
-      </c>
-      <c r="F39" t="n">
-        <v>136.4436021494844</v>
-      </c>
-      <c r="G39" t="n">
         <v>45.8915919048272</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>3106200005039</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3106200005039</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>1.988</v>
+        <v>14.738</v>
       </c>
       <c r="D40" t="n">
-        <v>0.694</v>
+        <v>140.6127169459368</v>
       </c>
       <c r="E40" t="n">
-        <v>14.738</v>
-      </c>
-      <c r="F40" t="n">
-        <v>140.6127169459368</v>
-      </c>
-      <c r="G40" t="n">
         <v>49.46120750766261</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>3106200005040</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3106200005040</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>1.37</v>
+        <v>11.04</v>
       </c>
       <c r="D41" t="n">
-        <v>0.492</v>
+        <v>131.6334119612757</v>
       </c>
       <c r="E41" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="F41" t="n">
-        <v>131.6334119612757</v>
-      </c>
-      <c r="G41" t="n">
         <v>48.80432549047099</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>3106200005041</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3106200005041</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1.076</v>
+        <v>9.048</v>
       </c>
       <c r="D42" t="n">
-        <v>0.374</v>
+        <v>127.8425525454936</v>
       </c>
       <c r="E42" t="n">
-        <v>9.048</v>
-      </c>
-      <c r="F42" t="n">
-        <v>127.8425525454936</v>
-      </c>
-      <c r="G42" t="n">
         <v>46.10724602195191</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>3106200005042</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3106200005042</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>1.284</v>
+        <v>9.84</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438</v>
+        <v>136.1537425135249</v>
       </c>
       <c r="E43" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="F43" t="n">
-        <v>136.1537425135249</v>
-      </c>
-      <c r="G43" t="n">
         <v>45.74396436896436</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>3106200005043</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3106200005043</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>1.926</v>
+        <v>16.606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.718</v>
+        <v>121.3985311838734</v>
       </c>
       <c r="E44" t="n">
-        <v>16.606</v>
-      </c>
-      <c r="F44" t="n">
-        <v>121.3985311838734</v>
-      </c>
-      <c r="G44" t="n">
         <v>45.52477428333868</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>3106200005044</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3106200005044</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>1.32</v>
+        <v>11.2</v>
       </c>
       <c r="D45" t="n">
-        <v>0.452</v>
+        <v>121.295497759894</v>
       </c>
       <c r="E45" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>121.295497759894</v>
-      </c>
-      <c r="G45" t="n">
         <v>41.79006714819408</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>3106200005045</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3106200005045</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>1.264</v>
+        <v>10.656</v>
       </c>
       <c r="D46" t="n">
-        <v>0.422</v>
+        <v>127.0685447249688</v>
       </c>
       <c r="E46" t="n">
-        <v>10.656</v>
-      </c>
-      <c r="F46" t="n">
-        <v>127.0685447249688</v>
-      </c>
-      <c r="G46" t="n">
         <v>41.77646989233673</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>3106200005046</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3106200005046</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>1.37</v>
+        <v>11.104</v>
       </c>
       <c r="D47" t="n">
-        <v>0.486</v>
+        <v>130.5071412430916</v>
       </c>
       <c r="E47" t="n">
-        <v>11.104</v>
-      </c>
-      <c r="F47" t="n">
-        <v>130.5071412430916</v>
-      </c>
-      <c r="G47" t="n">
         <v>45.46872233896732</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>3106200005047</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3106200005047</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>1.314</v>
+        <v>10.914</v>
       </c>
       <c r="D48" t="n">
-        <v>0.492</v>
+        <v>127.3052731496229</v>
       </c>
       <c r="E48" t="n">
-        <v>10.914</v>
-      </c>
-      <c r="F48" t="n">
-        <v>127.3052731496229</v>
-      </c>
-      <c r="G48" t="n">
         <v>49.03904910019462</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>3106200005048</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3106200005048</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>1.322</v>
+        <v>11.244</v>
       </c>
       <c r="D49" t="n">
-        <v>0.436</v>
+        <v>118.2796337391537</v>
       </c>
       <c r="E49" t="n">
-        <v>11.244</v>
-      </c>
-      <c r="F49" t="n">
-        <v>118.2796337391537</v>
-      </c>
-      <c r="G49" t="n">
         <v>39.27569215270454</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>3106200005049</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3106200005049</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>1.34</v>
+        <v>10.338</v>
       </c>
       <c r="D50" t="n">
-        <v>0.49</v>
+        <v>135.1350082408132</v>
       </c>
       <c r="E50" t="n">
-        <v>10.338</v>
-      </c>
-      <c r="F50" t="n">
-        <v>135.1350082408132</v>
-      </c>
-      <c r="G50" t="n">
         <v>49.58706693203596</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>3106200005050</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3106200005050</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>1.116</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.414</v>
+        <v>129.05097855361</v>
       </c>
       <c r="E51" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F51" t="n">
-        <v>129.05097855361</v>
-      </c>
-      <c r="G51" t="n">
         <v>48.44460261960258</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>3106200005051</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3106200005051</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>1.486</v>
+        <v>11.956</v>
       </c>
       <c r="D52" t="n">
-        <v>0.518</v>
+        <v>129.5775441019248</v>
       </c>
       <c r="E52" t="n">
-        <v>11.956</v>
-      </c>
-      <c r="F52" t="n">
-        <v>129.5775441019248</v>
-      </c>
-      <c r="G52" t="n">
         <v>44.57973793492364</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>3106200005052</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3106200005052</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>1.26</v>
+        <v>9.778</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412</v>
+        <v>136.6318771871402</v>
       </c>
       <c r="E53" t="n">
-        <v>9.778</v>
-      </c>
-      <c r="F53" t="n">
-        <v>136.6318771871402</v>
-      </c>
-      <c r="G53" t="n">
         <v>44.78215722186307</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>3106200005053</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3106200005053</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1.362</v>
+        <v>10.434</v>
       </c>
       <c r="D54" t="n">
-        <v>0.458</v>
+        <v>139.0649416716754</v>
       </c>
       <c r="E54" t="n">
-        <v>10.434</v>
-      </c>
-      <c r="F54" t="n">
-        <v>139.0649416716754</v>
-      </c>
-      <c r="G54" t="n">
         <v>47.24770894739933</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>3106200005054</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3106200005054</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>1.514</v>
+        <v>11.81</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5639999999999999</v>
+        <v>132.9876733513866</v>
       </c>
       <c r="E55" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="F55" t="n">
-        <v>132.9876733513866</v>
-      </c>
-      <c r="G55" t="n">
         <v>49.9616714812535</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>3106200005055</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3106200005055</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>1.974</v>
+        <v>16.194</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6820000000000001</v>
+        <v>126.5404029474861</v>
       </c>
       <c r="E56" t="n">
-        <v>16.194</v>
-      </c>
-      <c r="F56" t="n">
-        <v>126.5404029474861</v>
-      </c>
-      <c r="G56" t="n">
         <v>44.00042302863478</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>3106200005056</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3106200005056</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.966</v>
+        <v>8.416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.37</v>
+        <v>121.6207292707292</v>
       </c>
       <c r="E57" t="n">
-        <v>8.416</v>
-      </c>
-      <c r="F57" t="n">
-        <v>121.6207292707292</v>
-      </c>
-      <c r="G57" t="n">
         <v>48.20141525141521</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>3106200005057</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3106200005057</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>1.25</v>
+        <v>10.4</v>
       </c>
       <c r="D58" t="n">
-        <v>0.432</v>
+        <v>131.3894703026591</v>
       </c>
       <c r="E58" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>131.3894703026591</v>
-      </c>
-      <c r="G58" t="n">
         <v>43.78802708299611</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>3106200005058</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3106200005058</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>1.8</v>
+        <v>14.07</v>
       </c>
       <c r="D59" t="n">
-        <v>0.664</v>
+        <v>135.2375799519176</v>
       </c>
       <c r="E59" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="F59" t="n">
-        <v>135.2375799519176</v>
-      </c>
-      <c r="G59" t="n">
         <v>48.92817952080772</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>3106200005059</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3106200005059</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>1.262</v>
+        <v>10.818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.476</v>
+        <v>119.8033757522148</v>
       </c>
       <c r="E60" t="n">
-        <v>10.818</v>
-      </c>
-      <c r="F60" t="n">
-        <v>119.8033757522148</v>
-      </c>
-      <c r="G60" t="n">
         <v>45.45430401212136</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>3106200005060</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3106200005060</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>2.234</v>
+        <v>17.134</v>
       </c>
       <c r="D61" t="n">
-        <v>0.758</v>
+        <v>132.8989171119897</v>
       </c>
       <c r="E61" t="n">
-        <v>17.134</v>
-      </c>
-      <c r="F61" t="n">
-        <v>132.8989171119897</v>
-      </c>
-      <c r="G61" t="n">
         <v>45.02931137630294</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>3106200005061</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3106200005061</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>2.254</v>
+        <v>16.492</v>
       </c>
       <c r="D62" t="n">
-        <v>0.84</v>
+        <v>142.1373942016025</v>
       </c>
       <c r="E62" t="n">
-        <v>16.492</v>
-      </c>
-      <c r="F62" t="n">
-        <v>142.1373942016025</v>
-      </c>
-      <c r="G62" t="n">
         <v>52.86114687058693</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>3106200005062</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3106200005062</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>2.126</v>
+        <v>17.06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.76</v>
+        <v>127.4615475907057</v>
       </c>
       <c r="E63" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="F63" t="n">
-        <v>127.4615475907057</v>
-      </c>
-      <c r="G63" t="n">
         <v>45.73001409881547</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>3106200005063</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3106200005063</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>2.088</v>
+        <v>15.618</v>
       </c>
       <c r="D64" t="n">
-        <v>0.746</v>
+        <v>139.9999356270827</v>
       </c>
       <c r="E64" t="n">
-        <v>15.618</v>
-      </c>
-      <c r="F64" t="n">
-        <v>139.9999356270827</v>
-      </c>
-      <c r="G64" t="n">
         <v>50.25126402159576</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>3106200005064</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3106200005064</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1.18</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.406</v>
+        <v>129.5954151339903</v>
       </c>
       <c r="E65" t="n">
-        <v>9.614000000000001</v>
-      </c>
-      <c r="F65" t="n">
-        <v>129.5954151339903</v>
-      </c>
-      <c r="G65" t="n">
         <v>45.79466603228212</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>3106200005065</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3106200005065</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>1.208</v>
+        <v>10.362</v>
       </c>
       <c r="D66" t="n">
-        <v>0.44</v>
+        <v>122.857797663293</v>
       </c>
       <c r="E66" t="n">
-        <v>10.362</v>
-      </c>
-      <c r="F66" t="n">
-        <v>122.857797663293</v>
-      </c>
-      <c r="G66" t="n">
         <v>45.3536526339158</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>3106200005066</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3106200005066</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>1.466</v>
+        <v>11.136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.522</v>
+        <v>137.8961701009687</v>
       </c>
       <c r="E67" t="n">
-        <v>11.136</v>
-      </c>
-      <c r="F67" t="n">
-        <v>137.8961701009687</v>
-      </c>
-      <c r="G67" t="n">
         <v>48.94228087014464</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>3106200005067</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3106200005067</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>1.47</v>
+        <v>11.276</v>
       </c>
       <c r="D68" t="n">
-        <v>0.524</v>
+        <v>135.3428665675569</v>
       </c>
       <c r="E68" t="n">
-        <v>11.276</v>
-      </c>
-      <c r="F68" t="n">
-        <v>135.3428665675569</v>
-      </c>
-      <c r="G68" t="n">
         <v>49.01177975790981</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>3106705005001</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3106705005001</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5717171717171717</v>
+        <v>4.614141414141415</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1777777777777777</v>
+        <v>134.1374786829332</v>
       </c>
       <c r="E69" t="n">
-        <v>4.614141414141415</v>
-      </c>
-      <c r="F69" t="n">
-        <v>134.1374786829332</v>
-      </c>
-      <c r="G69" t="n">
         <v>41.36050257262379</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>3106705005002</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3106705005002</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>1.208</v>
+        <v>9.464</v>
       </c>
       <c r="D70" t="n">
-        <v>0.414</v>
+        <v>130.9074810810104</v>
       </c>
       <c r="E70" t="n">
-        <v>9.464</v>
-      </c>
-      <c r="F70" t="n">
-        <v>130.9074810810104</v>
-      </c>
-      <c r="G70" t="n">
         <v>44.85969030969029</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>3106705005003</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3106705005003</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0.824</v>
+        <v>6.666</v>
       </c>
       <c r="D71" t="n">
-        <v>0.298</v>
+        <v>130.7313963813963</v>
       </c>
       <c r="E71" t="n">
-        <v>6.666</v>
-      </c>
-      <c r="F71" t="n">
-        <v>130.7313963813963</v>
-      </c>
-      <c r="G71" t="n">
         <v>45.89321234321233</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>3106705005004</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3106705005004</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5194274028629857</v>
+        <v>4.619631901840491</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1983640081799591</v>
+        <v>128.9479663712792</v>
       </c>
       <c r="E72" t="n">
-        <v>4.619631901840491</v>
-      </c>
-      <c r="F72" t="n">
-        <v>128.9479663712792</v>
-      </c>
-      <c r="G72" t="n">
         <v>48.00775797708312</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>3106705005005</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3106705005005</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.5432595573440644</v>
+        <v>4.704225352112676</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1730382293762575</v>
+        <v>126.0818881543228</v>
       </c>
       <c r="E73" t="n">
-        <v>4.704225352112676</v>
-      </c>
-      <c r="F73" t="n">
-        <v>126.0818881543228</v>
-      </c>
-      <c r="G73" t="n">
         <v>40.68697901695889</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>3106705005006</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3106705005006</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5326530612244897</v>
+        <v>4.544897959183674</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2</v>
+        <v>136.9339900462349</v>
       </c>
       <c r="E74" t="n">
-        <v>4.544897959183674</v>
-      </c>
-      <c r="F74" t="n">
-        <v>136.9339900462349</v>
-      </c>
-      <c r="G74" t="n">
         <v>50.90702947845804</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>3106705005007</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3106705005007</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.85</v>
+        <v>7.414</v>
       </c>
       <c r="D75" t="n">
-        <v>0.292</v>
+        <v>121.0663059163058</v>
       </c>
       <c r="E75" t="n">
-        <v>7.414</v>
-      </c>
-      <c r="F75" t="n">
-        <v>121.0663059163058</v>
-      </c>
-      <c r="G75" t="n">
         <v>42.32312687312687</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>3106705005008</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3106705005008</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.7831325301204819</v>
+        <v>6.63855421686747</v>
       </c>
       <c r="D76" t="n">
-        <v>0.28714859437751</v>
+        <v>127.6718707441599</v>
       </c>
       <c r="E76" t="n">
-        <v>6.63855421686747</v>
-      </c>
-      <c r="F76" t="n">
-        <v>127.6718707441599</v>
-      </c>
-      <c r="G76" t="n">
         <v>45.88849626500227</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>3106705005009</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3106705005009</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8476953907815631</v>
+        <v>7.380761523046092</v>
       </c>
       <c r="D77" t="n">
-        <v>0.314629258517034</v>
+        <v>125.7985946362699</v>
       </c>
       <c r="E77" t="n">
-        <v>7.380761523046092</v>
-      </c>
-      <c r="F77" t="n">
-        <v>125.7985946362699</v>
-      </c>
-      <c r="G77" t="n">
         <v>49.7233950640764</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>3106705005010</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3106705005010</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.7214428857715431</v>
+        <v>5.312625250501002</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2404809619238476</v>
+        <v>142.9978505128806</v>
       </c>
       <c r="E78" t="n">
-        <v>5.312625250501002</v>
-      </c>
-      <c r="F78" t="n">
-        <v>142.9978505128806</v>
-      </c>
-      <c r="G78" t="n">
         <v>47.41693399008025</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>3106705005011</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3106705005011</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0.6056338028169014</v>
+        <v>5.181086519114688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2273641851106639</v>
+        <v>126.4611478394175</v>
       </c>
       <c r="E79" t="n">
-        <v>5.181086519114688</v>
-      </c>
-      <c r="F79" t="n">
-        <v>126.4611478394175</v>
-      </c>
-      <c r="G79" t="n">
         <v>46.39314966276737</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>3106705005012</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3106705005012</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>1.04</v>
+        <v>7.564</v>
       </c>
       <c r="D80" t="n">
-        <v>0.39</v>
+        <v>146.6967143967143</v>
       </c>
       <c r="E80" t="n">
-        <v>7.564</v>
-      </c>
-      <c r="F80" t="n">
-        <v>146.6967143967143</v>
-      </c>
-      <c r="G80" t="n">
         <v>53.25151237651233</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>3106705005013</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3106705005013</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0.8016032064128257</v>
+        <v>6.58316633266533</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2685370741482966</v>
+        <v>125.8157785211892</v>
       </c>
       <c r="E81" t="n">
-        <v>6.58316633266533</v>
-      </c>
-      <c r="F81" t="n">
-        <v>125.8157785211892</v>
-      </c>
-      <c r="G81" t="n">
         <v>43.85618556460238</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>3106705005014</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3106705005014</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0.752</v>
+        <v>6.776</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276</v>
+        <v>121.5838106338106</v>
       </c>
       <c r="E82" t="n">
-        <v>6.776</v>
-      </c>
-      <c r="F82" t="n">
-        <v>121.5838106338106</v>
-      </c>
-      <c r="G82" t="n">
         <v>43.98631368631369</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>3106705005015</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3106705005015</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.674</v>
+        <v>5.508</v>
       </c>
       <c r="D83" t="n">
-        <v>0.242</v>
+        <v>138.277922077922</v>
       </c>
       <c r="E83" t="n">
-        <v>5.508</v>
-      </c>
-      <c r="F83" t="n">
-        <v>138.277922077922</v>
-      </c>
-      <c r="G83" t="n">
         <v>50.96940836940836</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>3106705005016</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3106705005016</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5221774193548387</v>
+        <v>4.475806451612903</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2096774193548387</v>
+        <v>131.637224782386</v>
       </c>
       <c r="E84" t="n">
-        <v>4.475806451612903</v>
-      </c>
-      <c r="F84" t="n">
-        <v>131.637224782386</v>
-      </c>
-      <c r="G84" t="n">
         <v>51.71931003584227</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>3106705005017</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3106705005017</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7795591182364729</v>
+        <v>6.925851703406813</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2845691382765531</v>
+        <v>116.0203115024522</v>
       </c>
       <c r="E85" t="n">
-        <v>6.925851703406813</v>
-      </c>
-      <c r="F85" t="n">
-        <v>116.0203115024522</v>
-      </c>
-      <c r="G85" t="n">
         <v>44.44472053808373</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>3106705005018</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3106705005018</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.9078156312625252</v>
+        <v>6.917835671342686</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2965931863727455</v>
+        <v>143.410608540869</v>
       </c>
       <c r="E86" t="n">
-        <v>6.917835671342686</v>
-      </c>
-      <c r="F86" t="n">
-        <v>143.410608540869</v>
-      </c>
-      <c r="G86" t="n">
         <v>45.45699791190774</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>3106705005019</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3106705005019</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8997995991983968</v>
+        <v>7.711422845691382</v>
       </c>
       <c r="D87" t="n">
-        <v>0.314629258517034</v>
+        <v>122.2351607972694</v>
       </c>
       <c r="E87" t="n">
-        <v>7.711422845691382</v>
-      </c>
-      <c r="F87" t="n">
-        <v>122.2351607972694</v>
-      </c>
-      <c r="G87" t="n">
         <v>41.82559977384921</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>3106705005020</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3106705005020</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0.635814889336016</v>
+        <v>5.659959758551308</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2515090543259557</v>
+        <v>117.9169477962235</v>
       </c>
       <c r="E88" t="n">
-        <v>5.659959758551308</v>
-      </c>
-      <c r="F88" t="n">
-        <v>117.9169477962235</v>
-      </c>
-      <c r="G88" t="n">
         <v>47.06168524075966</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>3109006003001</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3109006003001</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6532258064516129</v>
+        <v>5.469758064516129</v>
       </c>
       <c r="D89" t="n">
-        <v>0.219758064516129</v>
+        <v>128.000482939999</v>
       </c>
       <c r="E89" t="n">
-        <v>5.469758064516129</v>
-      </c>
-      <c r="F89" t="n">
-        <v>128.000482939999</v>
-      </c>
-      <c r="G89" t="n">
         <v>43.99008809291065</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>3109006003002</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3109006003002</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0.7414829659318637</v>
+        <v>5.785571142284569</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2885771543086172</v>
+        <v>130.7378601201541</v>
       </c>
       <c r="E90" t="n">
-        <v>5.785571142284569</v>
-      </c>
-      <c r="F90" t="n">
-        <v>130.7378601201541</v>
-      </c>
-      <c r="G90" t="n">
         <v>50.98395258715899</v>
       </c>
     </row>
@@ -2516,22 +2150,18 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>3110004003001</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3110004003001</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.7655310621242485</v>
+        <v>5.945891783567134</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3086172344689378</v>
+        <v>140.016541018545</v>
       </c>
       <c r="E91" t="n">
-        <v>5.945891783567134</v>
-      </c>
-      <c r="F91" t="n">
-        <v>140.016541018545</v>
-      </c>
-      <c r="G91" t="n">
         <v>57.3889481705113</v>
       </c>
     </row>
@@ -2539,22 +2169,18 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>3110004003002</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3110004003002</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>1.028056112224449</v>
+        <v>7.501002004008016</v>
       </c>
       <c r="D92" t="n">
-        <v>0.374749498997996</v>
+        <v>146.9814476327501</v>
       </c>
       <c r="E92" t="n">
-        <v>7.501002004008016</v>
-      </c>
-      <c r="F92" t="n">
-        <v>146.9814476327501</v>
-      </c>
-      <c r="G92" t="n">
         <v>55.11863998837946</v>
       </c>
     </row>
@@ -2562,22 +2188,18 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>3112505001001</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3112505001001</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.4209401709401709</v>
+        <v>3.085470085470086</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1452991452991453</v>
+        <v>148.3618233618234</v>
       </c>
       <c r="E93" t="n">
-        <v>3.085470085470086</v>
-      </c>
-      <c r="F93" t="n">
-        <v>148.3618233618234</v>
-      </c>
-      <c r="G93" t="n">
         <v>51.43213268213268</v>
       </c>
     </row>
@@ -2585,22 +2207,18 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>3117876001001</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3117876001001</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>0.2394014962593516</v>
+        <v>2.316708229426434</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1022443890274314</v>
+        <v>121.6957605985038</v>
       </c>
       <c r="E94" t="n">
-        <v>2.316708229426434</v>
-      </c>
-      <c r="F94" t="n">
-        <v>121.6957605985038</v>
-      </c>
-      <c r="G94" t="n">
         <v>51.49625935162095</v>
       </c>
     </row>
@@ -2608,22 +2226,18 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>3118601005001</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3118601005001</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>2.468</v>
+        <v>17.426</v>
       </c>
       <c r="D95" t="n">
-        <v>0.856</v>
+        <v>144.5531399704626</v>
       </c>
       <c r="E95" t="n">
-        <v>17.426</v>
-      </c>
-      <c r="F95" t="n">
-        <v>144.5531399704626</v>
-      </c>
-      <c r="G95" t="n">
         <v>50.61856815972845</v>
       </c>
     </row>
@@ -2631,22 +2245,18 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>3118601005002</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3118601005002</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>1.628</v>
+        <v>12.562</v>
       </c>
       <c r="D96" t="n">
-        <v>0.578</v>
+        <v>134.9883010668755</v>
       </c>
       <c r="E96" t="n">
-        <v>12.562</v>
-      </c>
-      <c r="F96" t="n">
-        <v>134.9883010668755</v>
-      </c>
-      <c r="G96" t="n">
         <v>47.72222841403822</v>
       </c>
     </row>
@@ -2654,22 +2264,18 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>3118601005003</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3118601005003</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>2.07</v>
+        <v>15.746</v>
       </c>
       <c r="D97" t="n">
-        <v>0.772</v>
+        <v>136.5983823731495</v>
       </c>
       <c r="E97" t="n">
-        <v>15.746</v>
-      </c>
-      <c r="F97" t="n">
-        <v>136.5983823731495</v>
-      </c>
-      <c r="G97" t="n">
         <v>52.06439557794921</v>
       </c>
     </row>
@@ -2677,22 +2283,18 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>3118601005004</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3118601005004</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>2.678</v>
+        <v>20.534</v>
       </c>
       <c r="D98" t="n">
-        <v>0.924</v>
+        <v>132.785891982601</v>
       </c>
       <c r="E98" t="n">
-        <v>20.534</v>
-      </c>
-      <c r="F98" t="n">
-        <v>132.785891982601</v>
-      </c>
-      <c r="G98" t="n">
         <v>45.64723995536707</v>
       </c>
     </row>
@@ -2700,22 +2302,18 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>3118601005005</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3118601005005</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>1.256</v>
+        <v>9.816000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.44</v>
+        <v>129.8382047948611</v>
       </c>
       <c r="E99" t="n">
-        <v>9.816000000000001</v>
-      </c>
-      <c r="F99" t="n">
-        <v>129.8382047948611</v>
-      </c>
-      <c r="G99" t="n">
         <v>45.51007182531946</v>
       </c>
     </row>
@@ -2723,22 +2321,18 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>3118601005006</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3118601005006</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>1.458</v>
+        <v>10.528</v>
       </c>
       <c r="D100" t="n">
-        <v>0.532</v>
+        <v>144.4142037614948</v>
       </c>
       <c r="E100" t="n">
-        <v>10.528</v>
-      </c>
-      <c r="F100" t="n">
-        <v>144.4142037614948</v>
-      </c>
-      <c r="G100" t="n">
         <v>54.77186269183171</v>
       </c>
     </row>
@@ -2746,22 +2340,18 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>3118601005007</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3118601005007</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>1.464</v>
+        <v>11.946</v>
       </c>
       <c r="D101" t="n">
-        <v>0.546</v>
+        <v>127.7017670925565</v>
       </c>
       <c r="E101" t="n">
-        <v>11.946</v>
-      </c>
-      <c r="F101" t="n">
-        <v>127.7017670925565</v>
-      </c>
-      <c r="G101" t="n">
         <v>46.81955237744707</v>
       </c>
     </row>
@@ -2769,22 +2359,18 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>3118601005008</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3118601005008</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>1.732</v>
+        <v>13.936</v>
       </c>
       <c r="D102" t="n">
-        <v>0.58</v>
+        <v>131.2283137446802</v>
       </c>
       <c r="E102" t="n">
-        <v>13.936</v>
-      </c>
-      <c r="F102" t="n">
-        <v>131.2283137446802</v>
-      </c>
-      <c r="G102" t="n">
         <v>43.58131104585872</v>
       </c>
     </row>
@@ -2792,22 +2378,18 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>3118601005009</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3118601005009</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>1.428</v>
+        <v>12.426</v>
       </c>
       <c r="D103" t="n">
-        <v>0.518</v>
+        <v>121.0545932035688</v>
       </c>
       <c r="E103" t="n">
-        <v>12.426</v>
-      </c>
-      <c r="F103" t="n">
-        <v>121.0545932035688</v>
-      </c>
-      <c r="G103" t="n">
         <v>44.03399864153734</v>
       </c>
     </row>
@@ -2815,22 +2397,18 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>3118601005010</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3118601005010</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>2.638</v>
+        <v>19.208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.972</v>
+        <v>141.0848721950574</v>
       </c>
       <c r="E104" t="n">
-        <v>19.208</v>
-      </c>
-      <c r="F104" t="n">
-        <v>141.0848721950574</v>
-      </c>
-      <c r="G104" t="n">
         <v>52.01478317593274</v>
       </c>
     </row>
@@ -2838,22 +2416,18 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>3118601005011</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3118601005011</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>1.384</v>
+        <v>11.074</v>
       </c>
       <c r="D105" t="n">
-        <v>0.512</v>
+        <v>130.3438338063725</v>
       </c>
       <c r="E105" t="n">
-        <v>11.074</v>
-      </c>
-      <c r="F105" t="n">
-        <v>130.3438338063725</v>
-      </c>
-      <c r="G105" t="n">
         <v>48.45781289573855</v>
       </c>
     </row>
@@ -2861,22 +2435,18 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>3118601005012</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3118601005012</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>2.534</v>
+        <v>20.212</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9320000000000001</v>
+        <v>127.8240138540892</v>
       </c>
       <c r="E106" t="n">
-        <v>20.212</v>
-      </c>
-      <c r="F106" t="n">
-        <v>127.8240138540892</v>
-      </c>
-      <c r="G106" t="n">
         <v>46.86607843910684</v>
       </c>
     </row>
@@ -2884,22 +2454,18 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>3118601005013</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3118601005013</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>1.878</v>
+        <v>13.846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.714</v>
+        <v>141.655151976992</v>
       </c>
       <c r="E107" t="n">
-        <v>13.846</v>
-      </c>
-      <c r="F107" t="n">
-        <v>141.655151976992</v>
-      </c>
-      <c r="G107" t="n">
         <v>52.99768660692742</v>
       </c>
     </row>
@@ -2907,22 +2473,18 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>3118601005014</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3118601005014</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>1.624</v>
+        <v>12.868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.536</v>
+        <v>131.9577014589634</v>
       </c>
       <c r="E108" t="n">
-        <v>12.868</v>
-      </c>
-      <c r="F108" t="n">
-        <v>131.9577014589634</v>
-      </c>
-      <c r="G108" t="n">
         <v>43.84758903769532</v>
       </c>
     </row>
@@ -2930,22 +2492,18 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>3124104003001</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3124104003001</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>1.31</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.484</v>
+        <v>152.8796820826231</v>
       </c>
       <c r="E109" t="n">
-        <v>9.076000000000001</v>
-      </c>
-      <c r="F109" t="n">
-        <v>152.8796820826231</v>
-      </c>
-      <c r="G109" t="n">
         <v>55.74331550802136</v>
       </c>
     </row>
@@ -2953,22 +2511,18 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>3124104003002</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3124104003002</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>1.27</v>
+        <v>10.192</v>
       </c>
       <c r="D110" t="n">
-        <v>0.44</v>
+        <v>128.9388190928439</v>
       </c>
       <c r="E110" t="n">
-        <v>10.192</v>
-      </c>
-      <c r="F110" t="n">
-        <v>128.9388190928439</v>
-      </c>
-      <c r="G110" t="n">
         <v>45.16622964239063</v>
       </c>
     </row>
@@ -2976,22 +2530,18 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>3129806003001</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3129806003001</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>0.6257545271629779</v>
+        <v>5.243460764587526</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2132796780684104</v>
+        <v>130.6338865695002</v>
       </c>
       <c r="E111" t="n">
-        <v>5.243460764587526</v>
-      </c>
-      <c r="F111" t="n">
-        <v>130.6338865695002</v>
-      </c>
-      <c r="G111" t="n">
         <v>42.81619900332174</v>
       </c>
     </row>
@@ -2999,22 +2549,18 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>3129806003002</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3129806003002</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0.5513078470824949</v>
+        <v>4.927565392354125</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1790744466800805</v>
+        <v>116.8297664776538</v>
       </c>
       <c r="E112" t="n">
-        <v>4.927565392354125</v>
-      </c>
-      <c r="F112" t="n">
-        <v>116.8297664776538</v>
-      </c>
-      <c r="G112" t="n">
         <v>37.82391317602587</v>
       </c>
     </row>
@@ -3022,22 +2568,18 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>3129806003003</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3129806003003</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.6365461847389559</v>
+        <v>6.072289156626506</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2108433734939759</v>
+        <v>109.1556368664802</v>
       </c>
       <c r="E113" t="n">
-        <v>6.072289156626506</v>
-      </c>
-      <c r="F113" t="n">
-        <v>109.1556368664802</v>
-      </c>
-      <c r="G113" t="n">
         <v>38.02912281827944</v>
       </c>
     </row>
@@ -3045,22 +2587,18 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>3129806003004</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3129806003004</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0.7414829659318637</v>
+        <v>6.428857715430862</v>
       </c>
       <c r="D114" t="n">
-        <v>0.2765531062124248</v>
+        <v>126.1459510207005</v>
       </c>
       <c r="E114" t="n">
-        <v>6.428857715430862</v>
-      </c>
-      <c r="F114" t="n">
-        <v>126.1459510207005</v>
-      </c>
-      <c r="G114" t="n">
         <v>45.2587353639458</v>
       </c>
     </row>
@@ -3068,22 +2606,18 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>3129806003005</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3129806003005</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>1.238</v>
+        <v>9.667999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.43</v>
+        <v>133.4757573695653</v>
       </c>
       <c r="E115" t="n">
-        <v>9.667999999999999</v>
-      </c>
-      <c r="F115" t="n">
-        <v>133.4757573695653</v>
-      </c>
-      <c r="G115" t="n">
         <v>46.70915926179081</v>
       </c>
     </row>
@@ -3091,22 +2625,18 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>3129806003006</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3129806003006</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>0.6967871485943775</v>
+        <v>5.421686746987952</v>
       </c>
       <c r="D116" t="n">
-        <v>0.253012048192771</v>
+        <v>138.4968890992987</v>
       </c>
       <c r="E116" t="n">
-        <v>5.421686746987952</v>
-      </c>
-      <c r="F116" t="n">
-        <v>138.4968890992987</v>
-      </c>
-      <c r="G116" t="n">
         <v>50.60469985168778</v>
       </c>
     </row>
@@ -3114,22 +2644,18 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>3129806003007</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3129806003007</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5823293172690763</v>
+        <v>5.024096385542169</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1947791164658634</v>
+        <v>128.0430022899902</v>
       </c>
       <c r="E117" t="n">
-        <v>5.024096385542169</v>
-      </c>
-      <c r="F117" t="n">
-        <v>128.0430022899902</v>
-      </c>
-      <c r="G117" t="n">
         <v>44.66277809651304</v>
       </c>
     </row>
@@ -3137,22 +2663,18 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>3129806003008</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3129806003008</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>1.388</v>
+        <v>10.566</v>
       </c>
       <c r="D118" t="n">
-        <v>0.512</v>
+        <v>138.0607044314474</v>
       </c>
       <c r="E118" t="n">
-        <v>10.566</v>
-      </c>
-      <c r="F118" t="n">
-        <v>138.0607044314474</v>
-      </c>
-      <c r="G118" t="n">
         <v>53.22725733159166</v>
       </c>
     </row>
@@ -3160,22 +2682,18 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>3130101003001</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3130101003001</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5835010060362174</v>
+        <v>4.563380281690141</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2434607645875251</v>
+        <v>137.0524735715883</v>
       </c>
       <c r="E119" t="n">
-        <v>4.563380281690141</v>
-      </c>
-      <c r="F119" t="n">
-        <v>137.0524735715883</v>
-      </c>
-      <c r="G119" t="n">
         <v>58.6646865318897</v>
       </c>
     </row>
@@ -3183,22 +2701,18 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>3130101003002</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3130101003002</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.902</v>
+        <v>6.698</v>
       </c>
       <c r="D120" t="n">
-        <v>0.308</v>
+        <v>144.3316294816295</v>
       </c>
       <c r="E120" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="F120" t="n">
-        <v>144.3316294816295</v>
-      </c>
-      <c r="G120" t="n">
         <v>48.57986457986456</v>
       </c>
     </row>
@@ -3206,22 +2720,18 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>3136652001001</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3136652001001</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.8714859437751004</v>
+        <v>7.142570281124498</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3433734939759036</v>
+        <v>132.0329360903421</v>
       </c>
       <c r="E121" t="n">
-        <v>7.142570281124498</v>
-      </c>
-      <c r="F121" t="n">
-        <v>132.0329360903421</v>
-      </c>
-      <c r="G121" t="n">
         <v>55.21273683924286</v>
       </c>
     </row>
@@ -3229,22 +2739,18 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>3137601003001</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3137601003001</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>1.092</v>
+        <v>8.587999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.362</v>
+        <v>136.2992275698157</v>
       </c>
       <c r="E122" t="n">
-        <v>8.587999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>136.2992275698157</v>
-      </c>
-      <c r="G122" t="n">
         <v>44.52940833676126</v>
       </c>
     </row>
@@ -3252,22 +2758,18 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>3137601003002</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3137601003002</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>1.034</v>
+        <v>8.878</v>
       </c>
       <c r="D123" t="n">
-        <v>0.372</v>
+        <v>124.0816160963218</v>
       </c>
       <c r="E123" t="n">
-        <v>8.878</v>
-      </c>
-      <c r="F123" t="n">
-        <v>124.0816160963218</v>
-      </c>
-      <c r="G123" t="n">
         <v>45.56757849993141</v>
       </c>
     </row>
@@ -3275,22 +2777,18 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>3140159001001</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3140159001001</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>0.5273833671399595</v>
+        <v>4.468559837728194</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1845841784989858</v>
+        <v>134.8063363276344</v>
       </c>
       <c r="E124" t="n">
-        <v>4.468559837728194</v>
-      </c>
-      <c r="F124" t="n">
-        <v>134.8063363276344</v>
-      </c>
-      <c r="G124" t="n">
         <v>43.37390128465179</v>
       </c>
     </row>
@@ -3298,22 +2796,18 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>3140704003001</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3140704003001</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>0.5603271983640081</v>
+        <v>4.832310838445808</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2085889570552147</v>
+        <v>125.8262584949702</v>
       </c>
       <c r="E125" t="n">
-        <v>4.832310838445808</v>
-      </c>
-      <c r="F125" t="n">
-        <v>125.8262584949702</v>
-      </c>
-      <c r="G125" t="n">
         <v>48.2367496171177</v>
       </c>
     </row>
@@ -3321,22 +2815,18 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>3140704003002</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3140704003002</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0.5870445344129555</v>
+        <v>4.751012145748988</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2327935222672064</v>
+        <v>134.7978775610355</v>
       </c>
       <c r="E126" t="n">
-        <v>4.751012145748988</v>
-      </c>
-      <c r="F126" t="n">
-        <v>134.7978775610355</v>
-      </c>
-      <c r="G126" t="n">
         <v>51.63958848169371</v>
       </c>
     </row>
@@ -3344,22 +2834,18 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>3141108003001</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3141108003001</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>1.412</v>
+        <v>10.972</v>
       </c>
       <c r="D127" t="n">
-        <v>0.454</v>
+        <v>135.6135145728025</v>
       </c>
       <c r="E127" t="n">
-        <v>10.972</v>
-      </c>
-      <c r="F127" t="n">
-        <v>135.6135145728025</v>
-      </c>
-      <c r="G127" t="n">
         <v>42.17210391088097</v>
       </c>
     </row>
@@ -3367,22 +2853,18 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>3144805003001</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3144805003001</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>0.516260162601626</v>
+        <v>4.473577235772358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2113821138211382</v>
+        <v>127.1801200154858</v>
       </c>
       <c r="E128" t="n">
-        <v>4.473577235772358</v>
-      </c>
-      <c r="F128" t="n">
-        <v>127.1801200154858</v>
-      </c>
-      <c r="G128" t="n">
         <v>55.38779197315782</v>
       </c>
     </row>
@@ -3390,22 +2872,18 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>3144805003002</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3144805003002</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>0.6767068273092369</v>
+        <v>5.026104417670683</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2208835341365461</v>
+        <v>154.1797281255113</v>
       </c>
       <c r="E129" t="n">
-        <v>5.026104417670683</v>
-      </c>
-      <c r="F129" t="n">
-        <v>154.1797281255113</v>
-      </c>
-      <c r="G129" t="n">
         <v>50.28628221399304</v>
       </c>
     </row>
@@ -3413,22 +2891,18 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>3144805003003</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3144805003003</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>1.084</v>
+        <v>8.824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.422</v>
+        <v>128.6287256001652</v>
       </c>
       <c r="E130" t="n">
-        <v>8.824</v>
-      </c>
-      <c r="F130" t="n">
-        <v>128.6287256001652</v>
-      </c>
-      <c r="G130" t="n">
         <v>50.8580232632864</v>
       </c>
     </row>
@@ -3436,22 +2910,18 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>3144805003004</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3144805003004</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>1.2</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.442</v>
+        <v>143.84635054488</v>
       </c>
       <c r="E131" t="n">
-        <v>8.986000000000001</v>
-      </c>
-      <c r="F131" t="n">
-        <v>143.84635054488</v>
-      </c>
-      <c r="G131" t="n">
         <v>52.52583054200699</v>
       </c>
     </row>
@@ -3459,22 +2929,18 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>3149309003001</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>3149309003001</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0.6166328600405679</v>
+        <v>4.726166328600406</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2332657200811359</v>
+        <v>144.890589464626</v>
       </c>
       <c r="E132" t="n">
-        <v>4.726166328600406</v>
-      </c>
-      <c r="F132" t="n">
-        <v>144.890589464626</v>
-      </c>
-      <c r="G132" t="n">
         <v>55.83969219871855</v>
       </c>
     </row>
@@ -3482,22 +2948,18 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>3149309003002</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>3149309003002</t>
+        </is>
       </c>
       <c r="C133" t="n">
-        <v>0.868</v>
+        <v>6.854</v>
       </c>
       <c r="D133" t="n">
-        <v>0.286</v>
+        <v>140.4610500610499</v>
       </c>
       <c r="E133" t="n">
-        <v>6.854</v>
-      </c>
-      <c r="F133" t="n">
-        <v>140.4610500610499</v>
-      </c>
-      <c r="G133" t="n">
         <v>49.22036297036293</v>
       </c>
     </row>
@@ -3505,22 +2967,18 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>3149309003003</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3149309003003</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>1.112</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.396</v>
+        <v>138.7227400050929</v>
       </c>
       <c r="E134" t="n">
-        <v>8.465999999999999</v>
-      </c>
-      <c r="F134" t="n">
-        <v>138.7227400050929</v>
-      </c>
-      <c r="G134" t="n">
         <v>50.00494227994224</v>
       </c>
     </row>
@@ -3528,22 +2986,18 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>3153608001001</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>3153608001001</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>0.3670103092783505</v>
+        <v>3.315463917525773</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1195876288659793</v>
+        <v>117.6288659793815</v>
       </c>
       <c r="E135" t="n">
-        <v>3.315463917525773</v>
-      </c>
-      <c r="F135" t="n">
-        <v>117.6288659793815</v>
-      </c>
-      <c r="G135" t="n">
         <v>46.15365733922435</v>
       </c>
     </row>
@@ -3551,22 +3005,18 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>3153905001001</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3153905001001</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0.672</v>
+        <v>5.276</v>
       </c>
       <c r="D136" t="n">
-        <v>0.256</v>
+        <v>149.8111832611833</v>
       </c>
       <c r="E136" t="n">
-        <v>5.276</v>
-      </c>
-      <c r="F136" t="n">
-        <v>149.8111832611833</v>
-      </c>
-      <c r="G136" t="n">
         <v>54.13751803751801</v>
       </c>
     </row>
@@ -3574,22 +3024,18 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>3154606005001</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3154606005001</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0.6895161290322581</v>
+        <v>4.993951612903226</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2580645161290322</v>
+        <v>141.8907257616935</v>
       </c>
       <c r="E137" t="n">
-        <v>4.993951612903226</v>
-      </c>
-      <c r="F137" t="n">
-        <v>141.8907257616935</v>
-      </c>
-      <c r="G137" t="n">
         <v>49.1494952180436</v>
       </c>
     </row>
@@ -3597,22 +3043,18 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>3154606005002</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>3154606005002</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>0.6012145748987854</v>
+        <v>4.6417004048583</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1963562753036437</v>
+        <v>148.9966904440588</v>
       </c>
       <c r="E138" t="n">
-        <v>4.6417004048583</v>
-      </c>
-      <c r="F138" t="n">
-        <v>148.9966904440588</v>
-      </c>
-      <c r="G138" t="n">
         <v>48.10423494634022</v>
       </c>
     </row>
@@ -3620,22 +3062,18 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>3154606005003</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3154606005003</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0.6370967741935484</v>
+        <v>5.57258064516129</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2278225806451612</v>
+        <v>119.5009571521668</v>
       </c>
       <c r="E139" t="n">
-        <v>5.57258064516129</v>
-      </c>
-      <c r="F139" t="n">
-        <v>119.5009571521668</v>
-      </c>
-      <c r="G139" t="n">
         <v>43.90855560210398</v>
       </c>
     </row>
@@ -3643,22 +3081,18 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>3154606005004</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3154606005004</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0.501010101010101</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1797979797979798</v>
+        <v>125.3913594822686</v>
       </c>
       <c r="E140" t="n">
-        <v>4.555555555555555</v>
-      </c>
-      <c r="F140" t="n">
-        <v>125.3913594822686</v>
-      </c>
-      <c r="G140" t="n">
         <v>46.25621292287958</v>
       </c>
     </row>
@@ -3666,22 +3100,18 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>3154606005005</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3154606005005</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>0.597165991902834</v>
+        <v>4.803643724696356</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2085020242914979</v>
+        <v>132.9566632198211</v>
       </c>
       <c r="E141" t="n">
-        <v>4.803643724696356</v>
-      </c>
-      <c r="F141" t="n">
-        <v>132.9566632198211</v>
-      </c>
-      <c r="G141" t="n">
         <v>46.80370798791851</v>
       </c>
     </row>
@@ -3689,22 +3119,18 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>3154606005006</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3154606005006</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>0.5212121212121212</v>
+        <v>4.686868686868687</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1757575757575757</v>
+        <v>123.094072033466</v>
       </c>
       <c r="E142" t="n">
-        <v>4.686868686868687</v>
-      </c>
-      <c r="F142" t="n">
-        <v>123.094072033466</v>
-      </c>
-      <c r="G142" t="n">
         <v>42.69119769119767</v>
       </c>
     </row>
@@ -3712,22 +3138,18 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>3154606005007</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3154606005007</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>0.6989898989898989</v>
+        <v>5.038383838383838</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2505050505050505</v>
+        <v>144.4601862783681</v>
       </c>
       <c r="E143" t="n">
-        <v>5.038383838383838</v>
-      </c>
-      <c r="F143" t="n">
-        <v>144.4601862783681</v>
-      </c>
-      <c r="G143" t="n">
         <v>53.67426064395759</v>
       </c>
     </row>
@@ -3735,22 +3157,18 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>3154606005008</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3154606005008</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>0.6016260162601627</v>
+        <v>4.613821138211383</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2154471544715447</v>
+        <v>137.865663018102</v>
       </c>
       <c r="E144" t="n">
-        <v>4.613821138211383</v>
-      </c>
-      <c r="F144" t="n">
-        <v>137.865663018102</v>
-      </c>
-      <c r="G144" t="n">
         <v>50.69693743474231</v>
       </c>
     </row>
@@ -3758,22 +3176,18 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>3154606005009</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3154606005009</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>0.5853658536585366</v>
+        <v>4.743902439024391</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1991869918699187</v>
+        <v>133.3774457250067</v>
       </c>
       <c r="E145" t="n">
-        <v>4.743902439024391</v>
-      </c>
-      <c r="F145" t="n">
-        <v>133.3774457250067</v>
-      </c>
-      <c r="G145" t="n">
         <v>46.49216524216524</v>
       </c>
     </row>
@@ -3781,22 +3195,18 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>3154606005010</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3154606005010</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>0.6947791164658634</v>
+        <v>5.690763052208835</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2128514056224899</v>
+        <v>127.7149445824144</v>
       </c>
       <c r="E146" t="n">
-        <v>5.690763052208835</v>
-      </c>
-      <c r="F146" t="n">
-        <v>127.7149445824144</v>
-      </c>
-      <c r="G146" t="n">
         <v>38.87384369312081</v>
       </c>
     </row>
@@ -3804,22 +3214,18 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>3154606005011</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3154606005011</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0.5232323232323233</v>
+        <v>4.846464646464646</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1777777777777777</v>
+        <v>124.5105455711516</v>
       </c>
       <c r="E147" t="n">
-        <v>4.846464646464646</v>
-      </c>
-      <c r="F147" t="n">
-        <v>124.5105455711516</v>
-      </c>
-      <c r="G147" t="n">
         <v>44.9519728307607</v>
       </c>
     </row>
@@ -3827,22 +3233,18 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>3154606005012</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3154606005012</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0.5111111111111111</v>
+        <v>4.549494949494949</v>
       </c>
       <c r="D148" t="n">
-        <v>0.202020202020202</v>
+        <v>122.1102802920985</v>
       </c>
       <c r="E148" t="n">
-        <v>4.549494949494949</v>
-      </c>
-      <c r="F148" t="n">
-        <v>122.1102802920985</v>
-      </c>
-      <c r="G148" t="n">
         <v>52.65279053157841</v>
       </c>
     </row>
@@ -3850,22 +3252,18 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>3154606005013</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3154606005013</t>
+        </is>
       </c>
       <c r="C149" t="n">
-        <v>0.5201612903225806</v>
+        <v>4.526209677419355</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1854838709677419</v>
+        <v>125.5288338453661</v>
       </c>
       <c r="E149" t="n">
-        <v>4.526209677419355</v>
-      </c>
-      <c r="F149" t="n">
-        <v>125.5288338453661</v>
-      </c>
-      <c r="G149" t="n">
         <v>48.20948540706603</v>
       </c>
     </row>
@@ -3873,22 +3271,18 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>3154606005014</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3154606005014</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>0.5142276422764228</v>
+        <v>4.605691056910569</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1565040650406504</v>
+        <v>113.3275261324042</v>
       </c>
       <c r="E150" t="n">
-        <v>4.605691056910569</v>
-      </c>
-      <c r="F150" t="n">
-        <v>113.3275261324042</v>
-      </c>
-      <c r="G150" t="n">
         <v>34.18021680216803</v>
       </c>
     </row>
@@ -3896,22 +3290,18 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>3154606005015</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3154606005015</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>0.6330645161290323</v>
+        <v>4.971774193548387</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2096774193548387</v>
+        <v>151.5976966581805</v>
       </c>
       <c r="E151" t="n">
-        <v>4.971774193548387</v>
-      </c>
-      <c r="F151" t="n">
-        <v>151.5976966581805</v>
-      </c>
-      <c r="G151" t="n">
         <v>52.9344143759466</v>
       </c>
     </row>
@@ -3919,22 +3309,18 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>3154606005016</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3154606005016</t>
+        </is>
       </c>
       <c r="C152" t="n">
-        <v>0.6280487804878049</v>
+        <v>4.977642276422764</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2317073170731707</v>
+        <v>142.521029106395</v>
       </c>
       <c r="E152" t="n">
-        <v>4.977642276422764</v>
-      </c>
-      <c r="F152" t="n">
-        <v>142.521029106395</v>
-      </c>
-      <c r="G152" t="n">
         <v>51.10028860028859</v>
       </c>
     </row>
@@ -3942,22 +3328,18 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>3154606005017</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3154606005017</t>
+        </is>
       </c>
       <c r="C153" t="n">
-        <v>0.6317907444668008</v>
+        <v>5.06036217303823</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2434607645875251</v>
+        <v>133.1740973089061</v>
       </c>
       <c r="E153" t="n">
-        <v>5.06036217303823</v>
-      </c>
-      <c r="F153" t="n">
-        <v>133.1740973089061</v>
-      </c>
-      <c r="G153" t="n">
         <v>50.39842227970998</v>
       </c>
     </row>
@@ -3965,22 +3347,18 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>3154606005018</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>3154606005018</t>
+        </is>
       </c>
       <c r="C154" t="n">
-        <v>0.5356415478615071</v>
+        <v>4.767820773930754</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2077393075356415</v>
+        <v>122.9311591327884</v>
       </c>
       <c r="E154" t="n">
-        <v>4.767820773930754</v>
-      </c>
-      <c r="F154" t="n">
-        <v>122.9311591327884</v>
-      </c>
-      <c r="G154" t="n">
         <v>46.83274408325323</v>
       </c>
     </row>
@@ -3988,22 +3366,18 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>3154606005019</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>3154606005019</t>
+        </is>
       </c>
       <c r="C155" t="n">
-        <v>0.6197183098591549</v>
+        <v>5.253521126760563</v>
       </c>
       <c r="D155" t="n">
-        <v>0.2454728370221328</v>
+        <v>128.8612851490115</v>
       </c>
       <c r="E155" t="n">
-        <v>5.253521126760563</v>
-      </c>
-      <c r="F155" t="n">
-        <v>128.8612851490115</v>
-      </c>
-      <c r="G155" t="n">
         <v>52.82882777852598</v>
       </c>
     </row>
@@ -4011,22 +3385,18 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>3154606005020</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3154606005020</t>
+        </is>
       </c>
       <c r="C156" t="n">
-        <v>0.6262626262626263</v>
+        <v>5.25050505050505</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2444444444444444</v>
+        <v>137.7130837736898</v>
       </c>
       <c r="E156" t="n">
-        <v>5.25050505050505</v>
-      </c>
-      <c r="F156" t="n">
-        <v>137.7130837736898</v>
-      </c>
-      <c r="G156" t="n">
         <v>55.16997592755168</v>
       </c>
     </row>
@@ -4034,22 +3404,18 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>3154804001001</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>3154804001001</t>
+        </is>
       </c>
       <c r="C157" t="n">
-        <v>0.3447537473233404</v>
+        <v>3.186295503211992</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1027837259100642</v>
+        <v>115.335134767683</v>
       </c>
       <c r="E157" t="n">
-        <v>3.186295503211992</v>
-      </c>
-      <c r="F157" t="n">
-        <v>115.335134767683</v>
-      </c>
-      <c r="G157" t="n">
         <v>35.42367696543287</v>
       </c>
     </row>
@@ -4057,22 +3423,18 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>3156700003001</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3156700003001</t>
+        </is>
       </c>
       <c r="C158" t="n">
-        <v>0.6693386773547094</v>
+        <v>5.577154308617234</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2304609218436873</v>
+        <v>135.8710650293816</v>
       </c>
       <c r="E158" t="n">
-        <v>5.577154308617234</v>
-      </c>
-      <c r="F158" t="n">
-        <v>135.8710650293816</v>
-      </c>
-      <c r="G158" t="n">
         <v>44.55201890071629</v>
       </c>
     </row>
@@ -4080,22 +3442,18 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>3156700003002</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3156700003002</t>
+        </is>
       </c>
       <c r="C159" t="n">
-        <v>0.7414829659318637</v>
+        <v>5.649298597194389</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2665330661322645</v>
+        <v>146.8977637815313</v>
       </c>
       <c r="E159" t="n">
-        <v>5.649298597194389</v>
-      </c>
-      <c r="F159" t="n">
-        <v>146.8977637815313</v>
-      </c>
-      <c r="G159" t="n">
         <v>49.87211074385421</v>
       </c>
     </row>
@@ -4103,22 +3461,18 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>3156700003003</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3156700003003</t>
+        </is>
       </c>
       <c r="C160" t="n">
-        <v>0.7670682730923695</v>
+        <v>6.632530120481928</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2489959839357429</v>
+        <v>127.4784731110032</v>
       </c>
       <c r="E160" t="n">
-        <v>6.632530120481928</v>
-      </c>
-      <c r="F160" t="n">
-        <v>127.4784731110032</v>
-      </c>
-      <c r="G160" t="n">
         <v>40.39696358973466</v>
       </c>
     </row>
@@ -4126,22 +3480,18 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>3156700003004</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3156700003004</t>
+        </is>
       </c>
       <c r="C161" t="n">
-        <v>0.774</v>
+        <v>6.43</v>
       </c>
       <c r="D161" t="n">
-        <v>0.302</v>
+        <v>133.1094516594516</v>
       </c>
       <c r="E161" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="F161" t="n">
-        <v>133.1094516594516</v>
-      </c>
-      <c r="G161" t="n">
         <v>50.05577200577196</v>
       </c>
     </row>
@@ -4149,22 +3499,18 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
-        <v>3156700003005</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3156700003005</t>
+        </is>
       </c>
       <c r="C162" t="n">
-        <v>1.138</v>
+        <v>9.536</v>
       </c>
       <c r="D162" t="n">
-        <v>0.432</v>
+        <v>124.6997122158885</v>
       </c>
       <c r="E162" t="n">
-        <v>9.536</v>
-      </c>
-      <c r="F162" t="n">
-        <v>124.6997122158885</v>
-      </c>
-      <c r="G162" t="n">
         <v>48.01904206904206</v>
       </c>
     </row>
@@ -4172,22 +3518,18 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>3156700003006</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>3156700003006</t>
+        </is>
       </c>
       <c r="C163" t="n">
-        <v>1.16</v>
+        <v>9.257999999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>0.456</v>
+        <v>133.6949392884377</v>
       </c>
       <c r="E163" t="n">
-        <v>9.257999999999999</v>
-      </c>
-      <c r="F163" t="n">
-        <v>133.6949392884377</v>
-      </c>
-      <c r="G163" t="n">
         <v>51.8518645956726</v>
       </c>
     </row>
@@ -4195,22 +3537,18 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>3157807005001</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>3157807005001</t>
+        </is>
       </c>
       <c r="C164" t="n">
-        <v>0.83</v>
+        <v>6.402</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3</v>
+        <v>144.7615884115884</v>
       </c>
       <c r="E164" t="n">
-        <v>6.402</v>
-      </c>
-      <c r="F164" t="n">
-        <v>144.7615884115884</v>
-      </c>
-      <c r="G164" t="n">
         <v>51.49466089466085</v>
       </c>
     </row>
@@ -4218,22 +3556,18 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
-        <v>3157807005002</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3157807005002</t>
+        </is>
       </c>
       <c r="C165" t="n">
-        <v>0.954</v>
+        <v>7.934</v>
       </c>
       <c r="D165" t="n">
-        <v>0.37</v>
+        <v>127.159131511763</v>
       </c>
       <c r="E165" t="n">
-        <v>7.934</v>
-      </c>
-      <c r="F165" t="n">
-        <v>127.159131511763</v>
-      </c>
-      <c r="G165" t="n">
         <v>47.96533086796241</v>
       </c>
     </row>
@@ -4241,22 +3575,18 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
-        <v>3157807005003</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>3157807005003</t>
+        </is>
       </c>
       <c r="C166" t="n">
-        <v>0.7314629258517034</v>
+        <v>6.06813627254509</v>
       </c>
       <c r="D166" t="n">
-        <v>0.2585170340681362</v>
+        <v>134.0757995066612</v>
       </c>
       <c r="E166" t="n">
-        <v>6.06813627254509</v>
-      </c>
-      <c r="F166" t="n">
-        <v>134.0757995066612</v>
-      </c>
-      <c r="G166" t="n">
         <v>49.36648188151192</v>
       </c>
     </row>
@@ -4264,22 +3594,18 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>3157807005004</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>3157807005004</t>
+        </is>
       </c>
       <c r="C167" t="n">
-        <v>0.7323943661971831</v>
+        <v>5.424547283702213</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2676056338028169</v>
+        <v>141.8124911082657</v>
       </c>
       <c r="E167" t="n">
-        <v>5.424547283702213</v>
-      </c>
-      <c r="F167" t="n">
-        <v>141.8124911082657</v>
-      </c>
-      <c r="G167" t="n">
         <v>50.19815864886283</v>
       </c>
     </row>
@@ -4287,22 +3613,18 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>3157807005005</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>3157807005005</t>
+        </is>
       </c>
       <c r="C168" t="n">
-        <v>0.5598377281947262</v>
+        <v>4.62474645030426</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2190669371196754</v>
+        <v>145.536793609816</v>
       </c>
       <c r="E168" t="n">
-        <v>4.62474645030426</v>
-      </c>
-      <c r="F168" t="n">
-        <v>145.536793609816</v>
-      </c>
-      <c r="G168" t="n">
         <v>54.43840022947527</v>
       </c>
     </row>
@@ -4310,22 +3632,18 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>3157807005006</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>3157807005006</t>
+        </is>
       </c>
       <c r="C169" t="n">
-        <v>0.875751503006012</v>
+        <v>6.799599198396794</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2965931863727455</v>
+        <v>138.0954438569669</v>
       </c>
       <c r="E169" t="n">
-        <v>6.799599198396794</v>
-      </c>
-      <c r="F169" t="n">
-        <v>138.0954438569669</v>
-      </c>
-      <c r="G169" t="n">
         <v>48.34907354947432</v>
       </c>
     </row>
@@ -4333,22 +3651,18 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>3157807005007</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>3157807005007</t>
+        </is>
       </c>
       <c r="C170" t="n">
-        <v>0.6794354838709677</v>
+        <v>5.463709677419355</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2278225806451612</v>
+        <v>129.3299218702444</v>
       </c>
       <c r="E170" t="n">
-        <v>5.463709677419355</v>
-      </c>
-      <c r="F170" t="n">
-        <v>129.3299218702444</v>
-      </c>
-      <c r="G170" t="n">
         <v>41.99143710232419</v>
       </c>
     </row>
@@ -4356,22 +3670,18 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>3157807005008</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3157807005008</t>
+        </is>
       </c>
       <c r="C171" t="n">
-        <v>0.6492985971943888</v>
+        <v>5.783567134268537</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2044088176352705</v>
+        <v>122.1869591108067</v>
       </c>
       <c r="E171" t="n">
-        <v>5.783567134268537</v>
-      </c>
-      <c r="F171" t="n">
-        <v>122.1869591108067</v>
-      </c>
-      <c r="G171" t="n">
         <v>40.26718660987198</v>
       </c>
     </row>
@@ -4379,22 +3689,18 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>3157807005009</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3157807005009</t>
+        </is>
       </c>
       <c r="C172" t="n">
-        <v>0.6290322580645161</v>
+        <v>5.217741935483871</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2298387096774193</v>
+        <v>126.2451706000092</v>
       </c>
       <c r="E172" t="n">
-        <v>5.217741935483871</v>
-      </c>
-      <c r="F172" t="n">
-        <v>126.2451706000092</v>
-      </c>
-      <c r="G172" t="n">
         <v>45.65434005958198</v>
       </c>
     </row>
@@ -4402,22 +3708,18 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>3157807005010</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>3157807005010</t>
+        </is>
       </c>
       <c r="C173" t="n">
-        <v>0.5282258064516129</v>
+        <v>5.022177419354839</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1915322580645161</v>
+        <v>116.0915025834381</v>
       </c>
       <c r="E173" t="n">
-        <v>5.022177419354839</v>
-      </c>
-      <c r="F173" t="n">
-        <v>116.0915025834381</v>
-      </c>
-      <c r="G173" t="n">
         <v>42.59632616487456</v>
       </c>
     </row>
@@ -4425,22 +3727,18 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>3157807005011</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>3157807005011</t>
+        </is>
       </c>
       <c r="C174" t="n">
-        <v>0.6194331983805668</v>
+        <v>5.186234817813765</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1923076923076923</v>
+        <v>121.4158648369174</v>
       </c>
       <c r="E174" t="n">
-        <v>5.186234817813765</v>
-      </c>
-      <c r="F174" t="n">
-        <v>121.4158648369174</v>
-      </c>
-      <c r="G174" t="n">
         <v>36.89680202838098</v>
       </c>
     </row>
@@ -4448,22 +3746,18 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>3157807005012</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>3157807005012</t>
+        </is>
       </c>
       <c r="C175" t="n">
-        <v>0.5555555555555556</v>
+        <v>4.94949494949495</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1898989898989899</v>
+        <v>134.3966359117874</v>
       </c>
       <c r="E175" t="n">
-        <v>4.94949494949495</v>
-      </c>
-      <c r="F175" t="n">
-        <v>134.3966359117874</v>
-      </c>
-      <c r="G175" t="n">
         <v>48.61085603509844</v>
       </c>
     </row>
@@ -4471,22 +3765,18 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>3162922001001</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3162922001001</t>
+        </is>
       </c>
       <c r="C176" t="n">
-        <v>1.088</v>
+        <v>7.942</v>
       </c>
       <c r="D176" t="n">
-        <v>0.402</v>
+        <v>141.4259914921679</v>
       </c>
       <c r="E176" t="n">
-        <v>7.942</v>
-      </c>
-      <c r="F176" t="n">
-        <v>141.4259914921679</v>
-      </c>
-      <c r="G176" t="n">
         <v>54.38827920445567</v>
       </c>
     </row>
@@ -4494,22 +3784,18 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
-        <v>3162955001001</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3162955001001</t>
+        </is>
       </c>
       <c r="C177" t="n">
-        <v>0.84</v>
+        <v>6.522</v>
       </c>
       <c r="D177" t="n">
-        <v>0.29</v>
+        <v>137.540132090132</v>
       </c>
       <c r="E177" t="n">
-        <v>6.522</v>
-      </c>
-      <c r="F177" t="n">
-        <v>137.540132090132</v>
-      </c>
-      <c r="G177" t="n">
         <v>46.22207792207791</v>
       </c>
     </row>
@@ -4517,22 +3803,18 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>3165537001001</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>3165537001001</t>
+        </is>
       </c>
       <c r="C178" t="n">
-        <v>1.006</v>
+        <v>8.256</v>
       </c>
       <c r="D178" t="n">
-        <v>0.384</v>
+        <v>133.0765953001247</v>
       </c>
       <c r="E178" t="n">
-        <v>8.256</v>
-      </c>
-      <c r="F178" t="n">
-        <v>133.0765953001247</v>
-      </c>
-      <c r="G178" t="n">
         <v>50.41255133755129</v>
       </c>
     </row>
@@ -4540,22 +3822,18 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
-        <v>3167202005001</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>3167202005001</t>
+        </is>
       </c>
       <c r="C179" t="n">
-        <v>0.6345381526104418</v>
+        <v>5.154618473895583</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2389558232931727</v>
+        <v>138.2722810433654</v>
       </c>
       <c r="E179" t="n">
-        <v>5.154618473895583</v>
-      </c>
-      <c r="F179" t="n">
-        <v>138.2722810433654</v>
-      </c>
-      <c r="G179" t="n">
         <v>52.42086672809563</v>
       </c>
     </row>
@@ -4563,22 +3841,18 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
-        <v>3167202005002</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>3167202005002</t>
+        </is>
       </c>
       <c r="C180" t="n">
-        <v>0.6539235412474849</v>
+        <v>5.480885311871227</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2595573440643863</v>
+        <v>130.2853920057139</v>
       </c>
       <c r="E180" t="n">
-        <v>5.480885311871227</v>
-      </c>
-      <c r="F180" t="n">
-        <v>130.2853920057139</v>
-      </c>
-      <c r="G180" t="n">
         <v>50.22450721645892</v>
       </c>
     </row>
@@ -4586,22 +3860,18 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>3167202005003</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>3167202005003</t>
+        </is>
       </c>
       <c r="C181" t="n">
-        <v>0.781563126252505</v>
+        <v>6.615230460921843</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2845691382765531</v>
+        <v>127.6274529693131</v>
       </c>
       <c r="E181" t="n">
-        <v>6.615230460921843</v>
-      </c>
-      <c r="F181" t="n">
-        <v>127.6274529693131</v>
-      </c>
-      <c r="G181" t="n">
         <v>46.88384983976164</v>
       </c>
     </row>
@@ -4609,22 +3879,18 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
-        <v>3167202005004</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3167202005004</t>
+        </is>
       </c>
       <c r="C182" t="n">
-        <v>0.6833667334669339</v>
+        <v>5.523046092184368</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2264529058116232</v>
+        <v>133.8840351365402</v>
       </c>
       <c r="E182" t="n">
-        <v>5.523046092184368</v>
-      </c>
-      <c r="F182" t="n">
-        <v>133.8840351365402</v>
-      </c>
-      <c r="G182" t="n">
         <v>44.98088751595765</v>
       </c>
     </row>
@@ -4632,22 +3898,18 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
-        <v>3167202005005</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>3167202005005</t>
+        </is>
       </c>
       <c r="C183" t="n">
-        <v>0.6526104417670683</v>
+        <v>5.461847389558233</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2248995983935743</v>
+        <v>129.5974161938017</v>
       </c>
       <c r="E183" t="n">
-        <v>5.461847389558233</v>
-      </c>
-      <c r="F183" t="n">
-        <v>129.5974161938017</v>
-      </c>
-      <c r="G183" t="n">
         <v>45.19994173608631</v>
       </c>
     </row>
@@ -4655,22 +3917,18 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>3167202005006</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>3167202005006</t>
+        </is>
       </c>
       <c r="C184" t="n">
-        <v>0.59</v>
+        <v>5.314</v>
       </c>
       <c r="D184" t="n">
-        <v>0.212</v>
+        <v>129.5491064491064</v>
       </c>
       <c r="E184" t="n">
-        <v>5.314</v>
-      </c>
-      <c r="F184" t="n">
-        <v>129.5491064491064</v>
-      </c>
-      <c r="G184" t="n">
         <v>46.22857142857143</v>
       </c>
     </row>
@@ -4678,22 +3936,18 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>3167202005007</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>3167202005007</t>
+        </is>
       </c>
       <c r="C185" t="n">
-        <v>0.5914634146341463</v>
+        <v>4.794715447154472</v>
       </c>
       <c r="D185" t="n">
-        <v>0.2154471544715447</v>
+        <v>133.4981639859689</v>
       </c>
       <c r="E185" t="n">
-        <v>4.794715447154472</v>
-      </c>
-      <c r="F185" t="n">
-        <v>133.4981639859689</v>
-      </c>
-      <c r="G185" t="n">
         <v>46.16336125482465</v>
       </c>
     </row>
@@ -4701,22 +3955,18 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>3167202005008</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>3167202005008</t>
+        </is>
       </c>
       <c r="C186" t="n">
-        <v>0.8897795591182365</v>
+        <v>7.671342685370742</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3166332665330661</v>
+        <v>124.3595229478761</v>
       </c>
       <c r="E186" t="n">
-        <v>7.671342685370742</v>
-      </c>
-      <c r="F186" t="n">
-        <v>124.3595229478761</v>
-      </c>
-      <c r="G186" t="n">
         <v>44.6724264772125</v>
       </c>
     </row>
@@ -4724,22 +3974,18 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>3167202005009</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>3167202005009</t>
+        </is>
       </c>
       <c r="C187" t="n">
-        <v>0.5452716297786721</v>
+        <v>4.885311871227364</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1911468812877263</v>
+        <v>136.7576030050879</v>
       </c>
       <c r="E187" t="n">
-        <v>4.885311871227364</v>
-      </c>
-      <c r="F187" t="n">
-        <v>136.7576030050879</v>
-      </c>
-      <c r="G187" t="n">
         <v>45.0527339863356</v>
       </c>
     </row>
@@ -4747,22 +3993,18 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>3167202005010</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>3167202005010</t>
+        </is>
       </c>
       <c r="C188" t="n">
-        <v>0.5907258064516129</v>
+        <v>5.022177419354839</v>
       </c>
       <c r="D188" t="n">
-        <v>0.2036290322580645</v>
+        <v>126.1919532080822</v>
       </c>
       <c r="E188" t="n">
-        <v>5.022177419354839</v>
-      </c>
-      <c r="F188" t="n">
-        <v>126.1919532080822</v>
-      </c>
-      <c r="G188" t="n">
         <v>42.89474526369688</v>
       </c>
     </row>
@@ -4770,22 +4012,18 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>3167202005011</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>3167202005011</t>
+        </is>
       </c>
       <c r="C189" t="n">
-        <v>0.607645875251509</v>
+        <v>4.851106639839034</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2273641851106639</v>
+        <v>132.0118848287862</v>
       </c>
       <c r="E189" t="n">
-        <v>4.851106639839034</v>
-      </c>
-      <c r="F189" t="n">
-        <v>132.0118848287862</v>
-      </c>
-      <c r="G189" t="n">
         <v>49.07854832402115</v>
       </c>
     </row>
@@ -4793,22 +4031,18 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
-        <v>3167202005012</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>3167202005012</t>
+        </is>
       </c>
       <c r="C190" t="n">
-        <v>0.5777777777777777</v>
+        <v>4.618181818181818</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2121212121212121</v>
+        <v>137.9597787173544</v>
       </c>
       <c r="E190" t="n">
-        <v>4.618181818181818</v>
-      </c>
-      <c r="F190" t="n">
-        <v>137.9597787173544</v>
-      </c>
-      <c r="G190" t="n">
         <v>49.89245322578654</v>
       </c>
     </row>
@@ -4816,22 +4050,18 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>3167202005013</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>3167202005013</t>
+        </is>
       </c>
       <c r="C191" t="n">
-        <v>0.875751503006012</v>
+        <v>6.81563126252505</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3046092184368738</v>
+        <v>137.8229966818909</v>
       </c>
       <c r="E191" t="n">
-        <v>6.81563126252505</v>
-      </c>
-      <c r="F191" t="n">
-        <v>137.8229966818909</v>
-      </c>
-      <c r="G191" t="n">
         <v>47.16157812350198</v>
       </c>
     </row>
@@ -4839,22 +4069,18 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>3171204003001</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>3171204003001</t>
+        </is>
       </c>
       <c r="C192" t="n">
-        <v>0.6199186991869918</v>
+        <v>5.186991869918699</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2317073170731707</v>
+        <v>138.7842058573765</v>
       </c>
       <c r="E192" t="n">
-        <v>5.186991869918699</v>
-      </c>
-      <c r="F192" t="n">
-        <v>138.7842058573765</v>
-      </c>
-      <c r="G192" t="n">
         <v>55.45160575648379</v>
       </c>
     </row>
@@ -4862,22 +4088,18 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
-        <v>3171204003002</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>3171204003002</t>
+        </is>
       </c>
       <c r="C193" t="n">
-        <v>0.658</v>
+        <v>4.936</v>
       </c>
       <c r="D193" t="n">
-        <v>0.222</v>
+        <v>144.5898268398268</v>
       </c>
       <c r="E193" t="n">
-        <v>4.936</v>
-      </c>
-      <c r="F193" t="n">
-        <v>144.5898268398268</v>
-      </c>
-      <c r="G193" t="n">
         <v>47.39292929292928</v>
       </c>
     </row>
@@ -4885,22 +4107,18 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
-        <v>3171204003003</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>3171204003003</t>
+        </is>
       </c>
       <c r="C194" t="n">
-        <v>0.8293172690763052</v>
+        <v>6.807228915662651</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2831325301204819</v>
+        <v>128.0310552900914</v>
       </c>
       <c r="E194" t="n">
-        <v>6.807228915662651</v>
-      </c>
-      <c r="F194" t="n">
-        <v>128.0310552900914</v>
-      </c>
-      <c r="G194" t="n">
         <v>44.29198924680852</v>
       </c>
     </row>
@@ -4908,22 +4126,18 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>3171204003004</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>3171204003004</t>
+        </is>
       </c>
       <c r="C195" t="n">
-        <v>1.096192384769539</v>
+        <v>8.488977955911823</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3867735470941884</v>
+        <v>137.6489703467187</v>
       </c>
       <c r="E195" t="n">
-        <v>8.488977955911823</v>
-      </c>
-      <c r="F195" t="n">
-        <v>137.6489703467187</v>
-      </c>
-      <c r="G195" t="n">
         <v>47.86040138362427</v>
       </c>
     </row>
@@ -4931,22 +4145,18 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>3171204003005</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>3171204003005</t>
+        </is>
       </c>
       <c r="C196" t="n">
-        <v>1.206</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="D196" t="n">
-        <v>0.388</v>
+        <v>140.4922859819918</v>
       </c>
       <c r="E196" t="n">
-        <v>9.226000000000001</v>
-      </c>
-      <c r="F196" t="n">
-        <v>140.4922859819918</v>
-      </c>
-      <c r="G196" t="n">
         <v>44.54708983826629</v>
       </c>
     </row>

--- a/VIDA2/data/BELO HORIZONTE.xlsx
+++ b/VIDA2/data/BELO HORIZONTE.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.278</v>
+        <v>15.5795</v>
       </c>
       <c r="D2" t="n">
-        <v>131.80296656518</v>
+        <v>133.5044720184903</v>
       </c>
       <c r="E2" t="n">
-        <v>50.00675168718935</v>
+        <v>46.96012685457666</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.382</v>
+        <v>14.6615</v>
       </c>
       <c r="D3" t="n">
-        <v>136.8833506115637</v>
+        <v>130.4799393749983</v>
       </c>
       <c r="E3" t="n">
-        <v>47.9085310952938</v>
+        <v>45.86832082772295</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.428</v>
+        <v>17.7235</v>
       </c>
       <c r="D4" t="n">
-        <v>138.4084797813735</v>
+        <v>131.0168061701207</v>
       </c>
       <c r="E4" t="n">
-        <v>50.86146583289389</v>
+        <v>47.63501177526276</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.038</v>
+        <v>10.051</v>
       </c>
       <c r="D5" t="n">
-        <v>127.7699679233734</v>
+        <v>129.3807735736913</v>
       </c>
       <c r="E5" t="n">
-        <v>45.68929043952262</v>
+        <v>46.74387747615294</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13.222</v>
+        <v>13.154</v>
       </c>
       <c r="D6" t="n">
-        <v>127.5203240938031</v>
+        <v>134.5129026534254</v>
       </c>
       <c r="E6" t="n">
-        <v>49.29909326961751</v>
+        <v>47.15117519708384</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.74</v>
+        <v>9.9955</v>
       </c>
       <c r="D7" t="n">
-        <v>136.8105580693816</v>
+        <v>126.3744029577229</v>
       </c>
       <c r="E7" t="n">
-        <v>49.36470882059116</v>
+        <v>43.89590952348292</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.908</v>
+        <v>14.7675</v>
       </c>
       <c r="D8" t="n">
-        <v>136.501462773702</v>
+        <v>133.7573483587441</v>
       </c>
       <c r="E8" t="n">
-        <v>47.81850729556408</v>
+        <v>46.5845894909773</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.56</v>
+        <v>11.975</v>
       </c>
       <c r="D9" t="n">
-        <v>134.042410748044</v>
+        <v>118.0167727310713</v>
       </c>
       <c r="E9" t="n">
-        <v>42.26294291625423</v>
+        <v>43.77224140464824</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.356</v>
+        <v>10.32</v>
       </c>
       <c r="D10" t="n">
-        <v>117.87302321002</v>
+        <v>120.2297467274127</v>
       </c>
       <c r="E10" t="n">
-        <v>40.73948416564512</v>
+        <v>44.07736814269315</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.412000000000001</v>
+        <v>9.430999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>129.8946121645811</v>
+        <v>116.8364962093287</v>
       </c>
       <c r="E11" t="n">
-        <v>41.08876935757741</v>
+        <v>40.2925459323098</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.05</v>
+        <v>9.955</v>
       </c>
       <c r="D12" t="n">
-        <v>115.5756496771202</v>
+        <v>114.1041574825241</v>
       </c>
       <c r="E12" t="n">
-        <v>43.59508040978626</v>
+        <v>40.22340176163699</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.51</v>
+        <v>12.275</v>
       </c>
       <c r="D13" t="n">
-        <v>123.413611292986</v>
+        <v>119.4024123575003</v>
       </c>
       <c r="E13" t="n">
-        <v>43.27326682866795</v>
+        <v>43.40369717442847</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.554</v>
+        <v>8.648324162081041</v>
       </c>
       <c r="D14" t="n">
-        <v>118.4241317076455</v>
+        <v>119.8446734279858</v>
       </c>
       <c r="E14" t="n">
-        <v>44.16436484052582</v>
+        <v>42.61781748487559</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13.114</v>
+        <v>13.0265</v>
       </c>
       <c r="D15" t="n">
-        <v>129.914836518905</v>
+        <v>129.6883278172446</v>
       </c>
       <c r="E15" t="n">
-        <v>45.84272757349886</v>
+        <v>44.57448130924869</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15.798</v>
+        <v>15.5275</v>
       </c>
       <c r="D16" t="n">
-        <v>117.750285608004</v>
+        <v>124.1520091207432</v>
       </c>
       <c r="E16" t="n">
-        <v>43.68182368565461</v>
+        <v>44.78937861981464</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.03</v>
+        <v>11.118</v>
       </c>
       <c r="D17" t="n">
-        <v>125.6278716639396</v>
+        <v>122.719405111049</v>
       </c>
       <c r="E17" t="n">
-        <v>45.90131611594455</v>
+        <v>42.91061032331132</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.254</v>
+        <v>21.246</v>
       </c>
       <c r="D18" t="n">
-        <v>131.6651794487678</v>
+        <v>133.4512112914056</v>
       </c>
       <c r="E18" t="n">
-        <v>46.41490143646914</v>
+        <v>49.38932650429513</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.518</v>
+        <v>14.483</v>
       </c>
       <c r="D19" t="n">
-        <v>132.6382589446569</v>
+        <v>126.3719032161922</v>
       </c>
       <c r="E19" t="n">
-        <v>45.9811452080472</v>
+        <v>44.40151853031496</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13.522</v>
+        <v>13.324</v>
       </c>
       <c r="D20" t="n">
-        <v>119.9076093810918</v>
+        <v>124.6476667464265</v>
       </c>
       <c r="E20" t="n">
-        <v>47.25057414766321</v>
+        <v>43.67573014738207</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.856</v>
+        <v>10.0935</v>
       </c>
       <c r="D21" t="n">
-        <v>131.6489906722104</v>
+        <v>134.0174129920644</v>
       </c>
       <c r="E21" t="n">
-        <v>50.40494811346201</v>
+        <v>47.01723169331517</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.41</v>
+        <v>9.781499999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>130.5241513732225</v>
+        <v>130.6764944850468</v>
       </c>
       <c r="E22" t="n">
-        <v>48.97195561576363</v>
+        <v>46.77102307951755</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15.362</v>
+        <v>14.98</v>
       </c>
       <c r="D23" t="n">
-        <v>122.9340391274703</v>
+        <v>130.104653707943</v>
       </c>
       <c r="E23" t="n">
-        <v>44.70224311282716</v>
+        <v>46.30866016447411</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.076</v>
+        <v>11.8285</v>
       </c>
       <c r="D24" t="n">
-        <v>136.5964329470353</v>
+        <v>124.541458813617</v>
       </c>
       <c r="E24" t="n">
-        <v>47.73424678438475</v>
+        <v>43.57920650482154</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12.402</v>
+        <v>12.4925</v>
       </c>
       <c r="D25" t="n">
-        <v>126.6183830310967</v>
+        <v>137.8309607801324</v>
       </c>
       <c r="E25" t="n">
-        <v>46.79914608581318</v>
+        <v>48.34894804642088</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10.23</v>
+        <v>10.1135</v>
       </c>
       <c r="D26" t="n">
-        <v>132.1211402460629</v>
+        <v>137.8697698092236</v>
       </c>
       <c r="E26" t="n">
-        <v>48.0979337226241</v>
+        <v>50.33146775395218</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16.684</v>
+        <v>16.7595</v>
       </c>
       <c r="D27" t="n">
-        <v>135.7068473928339</v>
+        <v>131.7125664119427</v>
       </c>
       <c r="E27" t="n">
-        <v>46.20895607733132</v>
+        <v>45.96539829831416</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.992000000000001</v>
+        <v>9.301500000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>144.2707316333476</v>
+        <v>132.4636691932934</v>
       </c>
       <c r="E28" t="n">
-        <v>47.06545399045395</v>
+        <v>46.53025931327004</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12.31</v>
+        <v>12.4735</v>
       </c>
       <c r="D29" t="n">
-        <v>125.4571172807241</v>
+        <v>134.6245178479178</v>
       </c>
       <c r="E29" t="n">
-        <v>47.37207036169882</v>
+        <v>50.98213951533565</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.526</v>
+        <v>9.5105</v>
       </c>
       <c r="D30" t="n">
-        <v>125.4077834274428</v>
+        <v>133.4022299875045</v>
       </c>
       <c r="E30" t="n">
-        <v>39.98282705426666</v>
+        <v>46.75759899715003</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.048</v>
+        <v>16.87</v>
       </c>
       <c r="D31" t="n">
-        <v>124.0929485836034</v>
+        <v>136.1873925264144</v>
       </c>
       <c r="E31" t="n">
-        <v>46.30817467178166</v>
+        <v>49.39352539657151</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>13.736</v>
+        <v>13.7605</v>
       </c>
       <c r="D32" t="n">
-        <v>135.2584238602815</v>
+        <v>134.7407815842753</v>
       </c>
       <c r="E32" t="n">
-        <v>46.51383877784466</v>
+        <v>47.42435874746033</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15.06</v>
+        <v>14.9625</v>
       </c>
       <c r="D33" t="n">
-        <v>138.6757336345321</v>
+        <v>138.0401141339397</v>
       </c>
       <c r="E33" t="n">
-        <v>49.17320719191965</v>
+        <v>49.03777965223463</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.75</v>
+        <v>9.529500000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>127.4472004689496</v>
+        <v>128.9274684422902</v>
       </c>
       <c r="E34" t="n">
-        <v>46.91368402838992</v>
+        <v>44.70858056202477</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.932</v>
+        <v>12.797</v>
       </c>
       <c r="D35" t="n">
-        <v>136.6370185576377</v>
+        <v>133.2404554107889</v>
       </c>
       <c r="E35" t="n">
-        <v>48.29456587272374</v>
+        <v>49.26599565030163</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11.138</v>
+        <v>11.097</v>
       </c>
       <c r="D36" t="n">
-        <v>132.1814252482982</v>
+        <v>128.3066460113671</v>
       </c>
       <c r="E36" t="n">
-        <v>45.07539950589484</v>
+        <v>44.77935382256193</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>11.772</v>
+        <v>11.7205</v>
       </c>
       <c r="D37" t="n">
-        <v>118.4562895137199</v>
+        <v>121.5906113763293</v>
       </c>
       <c r="E37" t="n">
-        <v>45.1326833211508</v>
+        <v>43.17450151253144</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11.638</v>
+        <v>11.307</v>
       </c>
       <c r="D38" t="n">
-        <v>133.2865271192516</v>
+        <v>138.562431032272</v>
       </c>
       <c r="E38" t="n">
-        <v>51.81298075849161</v>
+        <v>46.86949797923086</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.752000000000001</v>
+        <v>9.865</v>
       </c>
       <c r="D39" t="n">
-        <v>136.4436021494844</v>
+        <v>130.8032974077863</v>
       </c>
       <c r="E39" t="n">
-        <v>45.8915919048272</v>
+        <v>45.62858573959569</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.738</v>
+        <v>14.9555</v>
       </c>
       <c r="D40" t="n">
-        <v>140.6127169459368</v>
+        <v>123.8581377093408</v>
       </c>
       <c r="E40" t="n">
-        <v>49.46120750766261</v>
+        <v>44.57950148684503</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11.04</v>
+        <v>11.152</v>
       </c>
       <c r="D41" t="n">
-        <v>131.6334119612757</v>
+        <v>138.8979545845451</v>
       </c>
       <c r="E41" t="n">
-        <v>48.80432549047099</v>
+        <v>48.50600761038056</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.048</v>
+        <v>9.259</v>
       </c>
       <c r="D42" t="n">
-        <v>127.8425525454936</v>
+        <v>136.4888100897731</v>
       </c>
       <c r="E42" t="n">
-        <v>46.10724602195191</v>
+        <v>50.73565227557093</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.84</v>
+        <v>9.832000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>136.1537425135249</v>
+        <v>135.8977515913737</v>
       </c>
       <c r="E43" t="n">
-        <v>45.74396436896436</v>
+        <v>50.49993750874164</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16.606</v>
+        <v>16.692</v>
       </c>
       <c r="D44" t="n">
-        <v>121.3985311838734</v>
+        <v>129.8463467591264</v>
       </c>
       <c r="E44" t="n">
-        <v>45.52477428333868</v>
+        <v>46.02709535665281</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11.2</v>
+        <v>11.127</v>
       </c>
       <c r="D45" t="n">
-        <v>121.295497759894</v>
+        <v>129.8002623436597</v>
       </c>
       <c r="E45" t="n">
-        <v>41.79006714819408</v>
+        <v>46.32327238175512</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10.656</v>
+        <v>10.609</v>
       </c>
       <c r="D46" t="n">
-        <v>127.0685447249688</v>
+        <v>134.7722023382196</v>
       </c>
       <c r="E46" t="n">
-        <v>41.77646989233673</v>
+        <v>47.72323286233878</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11.104</v>
+        <v>10.9185</v>
       </c>
       <c r="D47" t="n">
-        <v>130.5071412430916</v>
+        <v>127.9872887548465</v>
       </c>
       <c r="E47" t="n">
-        <v>45.46872233896732</v>
+        <v>44.24627249470507</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10.914</v>
+        <v>10.775</v>
       </c>
       <c r="D48" t="n">
-        <v>127.3052731496229</v>
+        <v>116.5997671059587</v>
       </c>
       <c r="E48" t="n">
-        <v>49.03904910019462</v>
+        <v>42.02672261089439</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11.244</v>
+        <v>11.114</v>
       </c>
       <c r="D49" t="n">
-        <v>118.2796337391537</v>
+        <v>126.6211803124295</v>
       </c>
       <c r="E49" t="n">
-        <v>39.27569215270454</v>
+        <v>44.61481517848364</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10.338</v>
+        <v>10.322</v>
       </c>
       <c r="D50" t="n">
-        <v>135.1350082408132</v>
+        <v>128.7294985007252</v>
       </c>
       <c r="E50" t="n">
-        <v>49.58706693203596</v>
+        <v>47.40917870399288</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9.130000000000001</v>
+        <v>9.2105</v>
       </c>
       <c r="D51" t="n">
-        <v>129.05097855361</v>
+        <v>138.6736271983949</v>
       </c>
       <c r="E51" t="n">
-        <v>48.44460261960258</v>
+        <v>50.44622793357306</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11.956</v>
+        <v>11.7295</v>
       </c>
       <c r="D52" t="n">
-        <v>129.5775441019248</v>
+        <v>132.4643924884844</v>
       </c>
       <c r="E52" t="n">
-        <v>44.57973793492364</v>
+        <v>48.08347759322894</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9.778</v>
+        <v>9.808</v>
       </c>
       <c r="D53" t="n">
-        <v>136.6318771871402</v>
+        <v>128.3726670130691</v>
       </c>
       <c r="E53" t="n">
-        <v>44.78215722186307</v>
+        <v>47.07920745405254</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.434</v>
+        <v>10.2997997997998</v>
       </c>
       <c r="D54" t="n">
-        <v>139.0649416716754</v>
+        <v>133.2691983620776</v>
       </c>
       <c r="E54" t="n">
-        <v>47.24770894739933</v>
+        <v>48.36573592378539</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11.81</v>
+        <v>11.826</v>
       </c>
       <c r="D55" t="n">
-        <v>132.9876733513866</v>
+        <v>117.4906745064284</v>
       </c>
       <c r="E55" t="n">
-        <v>49.9616714812535</v>
+        <v>41.94781478841068</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16.194</v>
+        <v>16.4495</v>
       </c>
       <c r="D56" t="n">
-        <v>126.5404029474861</v>
+        <v>126.051211396036</v>
       </c>
       <c r="E56" t="n">
-        <v>44.00042302863478</v>
+        <v>44.11037497129468</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.416</v>
+        <v>8.496</v>
       </c>
       <c r="D57" t="n">
-        <v>121.6207292707292</v>
+        <v>126.0205477421613</v>
       </c>
       <c r="E57" t="n">
-        <v>48.20141525141521</v>
+        <v>46.69808647235112</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10.4</v>
+        <v>10.37</v>
       </c>
       <c r="D58" t="n">
-        <v>131.3894703026591</v>
+        <v>127.9936419187963</v>
       </c>
       <c r="E58" t="n">
-        <v>43.78802708299611</v>
+        <v>46.11010640331452</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>14.07</v>
+        <v>14.1535</v>
       </c>
       <c r="D59" t="n">
-        <v>135.2375799519176</v>
+        <v>128.8558937980251</v>
       </c>
       <c r="E59" t="n">
-        <v>48.92817952080772</v>
+        <v>45.73381053261947</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10.818</v>
+        <v>10.7655</v>
       </c>
       <c r="D60" t="n">
-        <v>119.8033757522148</v>
+        <v>126.821978851042</v>
       </c>
       <c r="E60" t="n">
-        <v>45.45430401212136</v>
+        <v>43.73794641461041</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17.134</v>
+        <v>17.151</v>
       </c>
       <c r="D61" t="n">
-        <v>132.8989171119897</v>
+        <v>129.589389282189</v>
       </c>
       <c r="E61" t="n">
-        <v>45.02931137630294</v>
+        <v>47.17819419203515</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16.492</v>
+        <v>16.423</v>
       </c>
       <c r="D62" t="n">
-        <v>142.1373942016025</v>
+        <v>134.7909475342633</v>
       </c>
       <c r="E62" t="n">
-        <v>52.86114687058693</v>
+        <v>48.55062554110647</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17.06</v>
+        <v>16.9885</v>
       </c>
       <c r="D63" t="n">
-        <v>127.4615475907057</v>
+        <v>130.5858288065712</v>
       </c>
       <c r="E63" t="n">
-        <v>45.73001409881547</v>
+        <v>49.60128802929302</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15.618</v>
+        <v>15.309</v>
       </c>
       <c r="D64" t="n">
-        <v>139.9999356270827</v>
+        <v>131.2841374964905</v>
       </c>
       <c r="E64" t="n">
-        <v>50.25126402159576</v>
+        <v>46.53964276314853</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9.614000000000001</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>129.5954151339903</v>
+        <v>126.2426622332773</v>
       </c>
       <c r="E65" t="n">
-        <v>45.79466603228212</v>
+        <v>45.79381151614112</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10.362</v>
+        <v>10.1645</v>
       </c>
       <c r="D66" t="n">
-        <v>122.857797663293</v>
+        <v>129.9726758219941</v>
       </c>
       <c r="E66" t="n">
-        <v>45.3536526339158</v>
+        <v>46.51774249572225</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>11.136</v>
+        <v>11.0715</v>
       </c>
       <c r="D67" t="n">
-        <v>137.8961701009687</v>
+        <v>126.4503953364239</v>
       </c>
       <c r="E67" t="n">
-        <v>48.94228087014464</v>
+        <v>46.29175492636007</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>11.276</v>
+        <v>11.236</v>
       </c>
       <c r="D68" t="n">
-        <v>135.3428665675569</v>
+        <v>137.8224937450746</v>
       </c>
       <c r="E68" t="n">
-        <v>49.01177975790981</v>
+        <v>47.93572479507066</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.614141414141415</v>
+        <v>4.767324228629236</v>
       </c>
       <c r="D69" t="n">
-        <v>134.1374786829332</v>
+        <v>137.1526986473877</v>
       </c>
       <c r="E69" t="n">
-        <v>41.36050257262379</v>
+        <v>48.63008485921991</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9.464</v>
+        <v>9.346500000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>130.9074810810104</v>
+        <v>138.0699081426828</v>
       </c>
       <c r="E70" t="n">
-        <v>44.85969030969029</v>
+        <v>49.10485085734693</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6.666</v>
+        <v>6.933966983491746</v>
       </c>
       <c r="D71" t="n">
-        <v>130.7313963813963</v>
+        <v>134.2564971313169</v>
       </c>
       <c r="E71" t="n">
-        <v>45.89321234321233</v>
+        <v>46.12607460906607</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4.619631901840491</v>
+        <v>4.634800202326757</v>
       </c>
       <c r="D72" t="n">
-        <v>128.9479663712792</v>
+        <v>128.2570082645954</v>
       </c>
       <c r="E72" t="n">
-        <v>48.00775797708312</v>
+        <v>45.22269446396917</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4.704225352112676</v>
+        <v>4.713272543059777</v>
       </c>
       <c r="D73" t="n">
-        <v>126.0818881543228</v>
+        <v>130.1891399155835</v>
       </c>
       <c r="E73" t="n">
-        <v>40.68697901695889</v>
+        <v>46.2764860941153</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.544897959183674</v>
+        <v>4.646670055922725</v>
       </c>
       <c r="D74" t="n">
-        <v>136.9339900462349</v>
+        <v>122.2146406945593</v>
       </c>
       <c r="E74" t="n">
-        <v>50.90702947845804</v>
+        <v>42.9170840457063</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.414</v>
+        <v>7.382691345672836</v>
       </c>
       <c r="D75" t="n">
-        <v>121.0663059163058</v>
+        <v>128.7529774710862</v>
       </c>
       <c r="E75" t="n">
-        <v>42.32312687312687</v>
+        <v>46.53845820679238</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6.63855421686747</v>
+        <v>6.515030060120241</v>
       </c>
       <c r="D76" t="n">
-        <v>127.6718707441599</v>
+        <v>132.9276713044246</v>
       </c>
       <c r="E76" t="n">
-        <v>45.88849626500227</v>
+        <v>47.21241100249117</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.380761523046092</v>
+        <v>7.546546546546547</v>
       </c>
       <c r="D77" t="n">
-        <v>125.7985946362699</v>
+        <v>123.1827856827855</v>
       </c>
       <c r="E77" t="n">
-        <v>49.7233950640764</v>
+        <v>44.01468290357176</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5.312625250501002</v>
+        <v>5.218922999496729</v>
       </c>
       <c r="D78" t="n">
-        <v>142.9978505128806</v>
+        <v>120.6055966624662</v>
       </c>
       <c r="E78" t="n">
-        <v>47.41693399008025</v>
+        <v>43.37062660540266</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5.181086519114688</v>
+        <v>5.314414866901055</v>
       </c>
       <c r="D79" t="n">
-        <v>126.4611478394175</v>
+        <v>131.7186162238898</v>
       </c>
       <c r="E79" t="n">
-        <v>46.39314966276737</v>
+        <v>45.66979841967289</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.564</v>
+        <v>7.419209604802401</v>
       </c>
       <c r="D80" t="n">
-        <v>146.6967143967143</v>
+        <v>123.0027109628674</v>
       </c>
       <c r="E80" t="n">
-        <v>53.25151237651233</v>
+        <v>42.41533923249782</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.58316633266533</v>
+        <v>6.630391173520562</v>
       </c>
       <c r="D81" t="n">
-        <v>125.8157785211892</v>
+        <v>127.2337812082043</v>
       </c>
       <c r="E81" t="n">
-        <v>43.85618556460238</v>
+        <v>41.25690842090039</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.776</v>
+        <v>6.810905452726363</v>
       </c>
       <c r="D82" t="n">
-        <v>121.5838106338106</v>
+        <v>128.5804425115178</v>
       </c>
       <c r="E82" t="n">
-        <v>43.98631368631369</v>
+        <v>47.55856299193756</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.508</v>
+        <v>5.432513798294029</v>
       </c>
       <c r="D83" t="n">
-        <v>138.277922077922</v>
+        <v>120.7249404439569</v>
       </c>
       <c r="E83" t="n">
-        <v>50.96940836940836</v>
+        <v>44.43285292507569</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.475806451612903</v>
+        <v>4.539280283831729</v>
       </c>
       <c r="D84" t="n">
-        <v>131.637224782386</v>
+        <v>125.5223897013049</v>
       </c>
       <c r="E84" t="n">
-        <v>51.71931003584227</v>
+        <v>46.69953293876257</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6.925851703406813</v>
+        <v>7.086586586586587</v>
       </c>
       <c r="D85" t="n">
-        <v>116.0203115024522</v>
+        <v>136.5429115429114</v>
       </c>
       <c r="E85" t="n">
-        <v>44.44472053808373</v>
+        <v>47.77772138883247</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6.917835671342686</v>
+        <v>6.824912456228114</v>
       </c>
       <c r="D86" t="n">
-        <v>143.410608540869</v>
+        <v>133.0949142292312</v>
       </c>
       <c r="E86" t="n">
-        <v>45.45699791190774</v>
+        <v>48.25750718071878</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.711422845691382</v>
+        <v>7.6205</v>
       </c>
       <c r="D87" t="n">
-        <v>122.2351607972694</v>
+        <v>127.5628542209423</v>
       </c>
       <c r="E87" t="n">
-        <v>41.82559977384921</v>
+        <v>45.64047688422684</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5.659959758551308</v>
+        <v>5.728549924736578</v>
       </c>
       <c r="D88" t="n">
-        <v>117.9169477962235</v>
+        <v>125.6896737387276</v>
       </c>
       <c r="E88" t="n">
-        <v>47.06168524075966</v>
+        <v>41.95213362076797</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.469758064516129</v>
+        <v>5.378391959798995</v>
       </c>
       <c r="D89" t="n">
-        <v>128.000482939999</v>
+        <v>141.3282725091769</v>
       </c>
       <c r="E89" t="n">
-        <v>43.99008809291065</v>
+        <v>48.30337864257461</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.785571142284569</v>
+        <v>5.749874434957308</v>
       </c>
       <c r="D90" t="n">
-        <v>130.7378601201541</v>
+        <v>143.1432287785878</v>
       </c>
       <c r="E90" t="n">
-        <v>50.98395258715899</v>
+        <v>50.07181138522172</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5.945891783567134</v>
+        <v>5.928679055750879</v>
       </c>
       <c r="D91" t="n">
-        <v>140.016541018545</v>
+        <v>139.4592808831884</v>
       </c>
       <c r="E91" t="n">
-        <v>57.3889481705113</v>
+        <v>47.23179187016459</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.501002004008016</v>
+        <v>7.727863931965983</v>
       </c>
       <c r="D92" t="n">
-        <v>146.9814476327501</v>
+        <v>132.0768366672121</v>
       </c>
       <c r="E92" t="n">
-        <v>55.11863998837946</v>
+        <v>47.51036713112951</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.085470085470086</v>
+        <v>3.138560687432868</v>
       </c>
       <c r="D93" t="n">
-        <v>148.3618233618234</v>
+        <v>109.8011339418428</v>
       </c>
       <c r="E93" t="n">
-        <v>51.43213268213268</v>
+        <v>39.17898100228928</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.316708229426434</v>
+        <v>2.361395069152135</v>
       </c>
       <c r="D94" t="n">
-        <v>121.6957605985038</v>
+        <v>118.6412705354377</v>
       </c>
       <c r="E94" t="n">
-        <v>51.49625935162095</v>
+        <v>41.12573636025232</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>17.426</v>
+        <v>17.7125</v>
       </c>
       <c r="D95" t="n">
-        <v>144.5531399704626</v>
+        <v>134.2139741479239</v>
       </c>
       <c r="E95" t="n">
-        <v>50.61856815972845</v>
+        <v>47.68894006995472</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12.562</v>
+        <v>12.8895</v>
       </c>
       <c r="D96" t="n">
-        <v>134.9883010668755</v>
+        <v>131.68022709554</v>
       </c>
       <c r="E96" t="n">
-        <v>47.72222841403822</v>
+        <v>46.41059698583526</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>15.746</v>
+        <v>15.994</v>
       </c>
       <c r="D97" t="n">
-        <v>136.5983823731495</v>
+        <v>139.2549538438547</v>
       </c>
       <c r="E97" t="n">
-        <v>52.06439557794921</v>
+        <v>49.08352957748258</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>20.534</v>
+        <v>20.568</v>
       </c>
       <c r="D98" t="n">
-        <v>132.785891982601</v>
+        <v>131.5893838529325</v>
       </c>
       <c r="E98" t="n">
-        <v>45.64723995536707</v>
+        <v>47.53033443801431</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9.816000000000001</v>
+        <v>9.6275</v>
       </c>
       <c r="D99" t="n">
-        <v>129.8382047948611</v>
+        <v>137.9131313131311</v>
       </c>
       <c r="E99" t="n">
-        <v>45.51007182531946</v>
+        <v>46.3593080186926</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10.528</v>
+        <v>10.5605</v>
       </c>
       <c r="D100" t="n">
-        <v>144.4142037614948</v>
+        <v>134.0866198558921</v>
       </c>
       <c r="E100" t="n">
-        <v>54.77186269183171</v>
+        <v>47.99547832198744</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11.946</v>
+        <v>11.5915</v>
       </c>
       <c r="D101" t="n">
-        <v>127.7017670925565</v>
+        <v>130.6577764894316</v>
       </c>
       <c r="E101" t="n">
-        <v>46.81955237744707</v>
+        <v>45.88375578380191</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13.936</v>
+        <v>14.1095</v>
       </c>
       <c r="D102" t="n">
-        <v>131.2283137446802</v>
+        <v>134.313612677412</v>
       </c>
       <c r="E102" t="n">
-        <v>43.58131104585872</v>
+        <v>47.89403692884957</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>12.426</v>
+        <v>12.3845</v>
       </c>
       <c r="D103" t="n">
-        <v>121.0545932035688</v>
+        <v>129.2451026082208</v>
       </c>
       <c r="E103" t="n">
-        <v>44.03399864153734</v>
+        <v>46.07138826011482</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>19.208</v>
+        <v>19.512</v>
       </c>
       <c r="D104" t="n">
-        <v>141.0848721950574</v>
+        <v>139.9759512814486</v>
       </c>
       <c r="E104" t="n">
-        <v>52.01478317593274</v>
+        <v>50.02843465996489</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11.074</v>
+        <v>11.1285</v>
       </c>
       <c r="D105" t="n">
-        <v>130.3438338063725</v>
+        <v>135.2726652604357</v>
       </c>
       <c r="E105" t="n">
-        <v>48.45781289573855</v>
+        <v>47.39968035705256</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>20.212</v>
+        <v>19.8545</v>
       </c>
       <c r="D106" t="n">
-        <v>127.8240138540892</v>
+        <v>132.0586591008494</v>
       </c>
       <c r="E106" t="n">
-        <v>46.86607843910684</v>
+        <v>48.24500661787297</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13.846</v>
+        <v>14.003</v>
       </c>
       <c r="D107" t="n">
-        <v>141.655151976992</v>
+        <v>134.7178442049405</v>
       </c>
       <c r="E107" t="n">
-        <v>52.99768660692742</v>
+        <v>48.92078596985564</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12.868</v>
+        <v>12.878</v>
       </c>
       <c r="D108" t="n">
-        <v>131.9577014589634</v>
+        <v>130.8217764682296</v>
       </c>
       <c r="E108" t="n">
-        <v>43.84758903769532</v>
+        <v>46.09482720927301</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9.076000000000001</v>
+        <v>9.287000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>152.8796820826231</v>
+        <v>134.3934976959742</v>
       </c>
       <c r="E109" t="n">
-        <v>55.74331550802136</v>
+        <v>46.85525466105952</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10.192</v>
+        <v>10.2415</v>
       </c>
       <c r="D110" t="n">
-        <v>128.9388190928439</v>
+        <v>130.4984968505864</v>
       </c>
       <c r="E110" t="n">
-        <v>45.16622964239063</v>
+        <v>47.1128377835614</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5.243460764587526</v>
+        <v>5.196878147029205</v>
       </c>
       <c r="D111" t="n">
-        <v>130.6338865695002</v>
+        <v>129.9096366316909</v>
       </c>
       <c r="E111" t="n">
-        <v>42.81619900332174</v>
+        <v>48.3456456266124</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4.927565392354125</v>
+        <v>4.898236775818639</v>
       </c>
       <c r="D112" t="n">
-        <v>116.8297664776538</v>
+        <v>121.730262460741</v>
       </c>
       <c r="E112" t="n">
-        <v>37.82391317602587</v>
+        <v>44.51280177980431</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6.072289156626506</v>
+        <v>6.052578868302454</v>
       </c>
       <c r="D113" t="n">
-        <v>109.1556368664802</v>
+        <v>134.5668005282425</v>
       </c>
       <c r="E113" t="n">
-        <v>38.02912281827944</v>
+        <v>48.05915444373136</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6.428857715430862</v>
+        <v>6.159899749373434</v>
       </c>
       <c r="D114" t="n">
-        <v>126.1459510207005</v>
+        <v>137.7662173526834</v>
       </c>
       <c r="E114" t="n">
-        <v>45.2587353639458</v>
+        <v>45.23298895479349</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9.667999999999999</v>
+        <v>9.496499999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>133.4757573695653</v>
+        <v>131.014338220259</v>
       </c>
       <c r="E115" t="n">
-        <v>46.70915926179081</v>
+        <v>49.03145856121852</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5.421686746987952</v>
+        <v>5.474949899799599</v>
       </c>
       <c r="D116" t="n">
-        <v>138.4968890992987</v>
+        <v>124.2422838239469</v>
       </c>
       <c r="E116" t="n">
-        <v>50.60469985168778</v>
+        <v>44.99071958991798</v>
       </c>
     </row>
     <row r="117">
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5.024096385542169</v>
+        <v>5.073980875691998</v>
       </c>
       <c r="D117" t="n">
-        <v>128.0430022899902</v>
+        <v>129.9093067085013</v>
       </c>
       <c r="E117" t="n">
-        <v>44.66277809651304</v>
+        <v>44.8561210639721</v>
       </c>
     </row>
     <row r="118">
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10.566</v>
+        <v>10.663</v>
       </c>
       <c r="D118" t="n">
-        <v>138.0607044314474</v>
+        <v>127.1059510721735</v>
       </c>
       <c r="E118" t="n">
-        <v>53.22725733159166</v>
+        <v>46.92444293892409</v>
       </c>
     </row>
     <row r="119">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4.563380281690141</v>
+        <v>4.72649140546006</v>
       </c>
       <c r="D119" t="n">
-        <v>137.0524735715883</v>
+        <v>135.5538855033294</v>
       </c>
       <c r="E119" t="n">
-        <v>58.6646865318897</v>
+        <v>52.14816640499152</v>
       </c>
     </row>
     <row r="120">
@@ -2707,13 +2707,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6.698</v>
+        <v>6.71256885327992</v>
       </c>
       <c r="D120" t="n">
-        <v>144.3316294816295</v>
+        <v>147.2710677558387</v>
       </c>
       <c r="E120" t="n">
-        <v>48.57986457986456</v>
+        <v>52.57094578355883</v>
       </c>
     </row>
     <row r="121">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7.142570281124498</v>
+        <v>7.125062531265633</v>
       </c>
       <c r="D121" t="n">
-        <v>132.0329360903421</v>
+        <v>142.8948601284769</v>
       </c>
       <c r="E121" t="n">
-        <v>55.21273683924286</v>
+        <v>50.20121130051093</v>
       </c>
     </row>
     <row r="122">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>8.587999999999999</v>
+        <v>8.5145</v>
       </c>
       <c r="D122" t="n">
-        <v>136.2992275698157</v>
+        <v>127.6872274304043</v>
       </c>
       <c r="E122" t="n">
-        <v>44.52940833676126</v>
+        <v>44.13231662128717</v>
       </c>
     </row>
     <row r="123">
@@ -2764,13 +2764,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8.878</v>
+        <v>8.99</v>
       </c>
       <c r="D123" t="n">
-        <v>124.0816160963218</v>
+        <v>124.1735401788611</v>
       </c>
       <c r="E123" t="n">
-        <v>45.56757849993141</v>
+        <v>45.89335496804532</v>
       </c>
     </row>
     <row r="124">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4.468559837728194</v>
+        <v>4.294656488549618</v>
       </c>
       <c r="D124" t="n">
-        <v>134.8063363276344</v>
+        <v>135.9425222784002</v>
       </c>
       <c r="E124" t="n">
-        <v>43.37390128465179</v>
+        <v>45.28011852439334</v>
       </c>
     </row>
     <row r="125">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4.832310838445808</v>
+        <v>4.622851365015167</v>
       </c>
       <c r="D125" t="n">
-        <v>125.8262584949702</v>
+        <v>126.2906582800415</v>
       </c>
       <c r="E125" t="n">
-        <v>48.2367496171177</v>
+        <v>45.28286986578191</v>
       </c>
     </row>
     <row r="126">
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>4.751012145748988</v>
+        <v>4.701213346814964</v>
       </c>
       <c r="D126" t="n">
-        <v>134.7978775610355</v>
+        <v>147.7784391207039</v>
       </c>
       <c r="E126" t="n">
-        <v>51.63958848169371</v>
+        <v>50.72964615431756</v>
       </c>
     </row>
     <row r="127">
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10.972</v>
+        <v>11.3215</v>
       </c>
       <c r="D127" t="n">
-        <v>135.6135145728025</v>
+        <v>135.5098642384397</v>
       </c>
       <c r="E127" t="n">
-        <v>42.17210391088097</v>
+        <v>46.07159841502697</v>
       </c>
     </row>
     <row r="128">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4.473577235772358</v>
+        <v>4.327235772357724</v>
       </c>
       <c r="D128" t="n">
-        <v>127.1801200154858</v>
+        <v>123.9366663147151</v>
       </c>
       <c r="E128" t="n">
-        <v>55.38779197315782</v>
+        <v>43.10338064149036</v>
       </c>
     </row>
     <row r="129">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5.026104417670683</v>
+        <v>5.209814722083125</v>
       </c>
       <c r="D129" t="n">
-        <v>154.1797281255113</v>
+        <v>131.1051756344694</v>
       </c>
       <c r="E129" t="n">
-        <v>50.28628221399304</v>
+        <v>47.01199179166131</v>
       </c>
     </row>
     <row r="130">
@@ -2897,13 +2897,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>8.824</v>
+        <v>9.112</v>
       </c>
       <c r="D130" t="n">
-        <v>128.6287256001652</v>
+        <v>136.2154080654466</v>
       </c>
       <c r="E130" t="n">
-        <v>50.8580232632864</v>
+        <v>46.66527052239119</v>
       </c>
     </row>
     <row r="131">
@@ -2916,13 +2916,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8.986000000000001</v>
+        <v>8.794</v>
       </c>
       <c r="D131" t="n">
-        <v>143.84635054488</v>
+        <v>139.8560624188332</v>
       </c>
       <c r="E131" t="n">
-        <v>52.52583054200699</v>
+        <v>51.10149852082896</v>
       </c>
     </row>
     <row r="132">
@@ -2935,13 +2935,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4.726166328600406</v>
+        <v>4.904282115869018</v>
       </c>
       <c r="D132" t="n">
-        <v>144.890589464626</v>
+        <v>127.4060308569124</v>
       </c>
       <c r="E132" t="n">
-        <v>55.83969219871855</v>
+        <v>44.61539300330234</v>
       </c>
     </row>
     <row r="133">
@@ -2954,13 +2954,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6.854</v>
+        <v>6.632765531062124</v>
       </c>
       <c r="D133" t="n">
-        <v>140.4610500610499</v>
+        <v>129.8179894309652</v>
       </c>
       <c r="E133" t="n">
-        <v>49.22036297036293</v>
+        <v>43.36712330199305</v>
       </c>
     </row>
     <row r="134">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8.465999999999999</v>
+        <v>8.204204204204204</v>
       </c>
       <c r="D134" t="n">
-        <v>138.7227400050929</v>
+        <v>136.2380922021444</v>
       </c>
       <c r="E134" t="n">
-        <v>50.00494227994224</v>
+        <v>48.44992692214916</v>
       </c>
     </row>
     <row r="135">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3.315463917525773</v>
+        <v>3.335084033613445</v>
       </c>
       <c r="D135" t="n">
-        <v>117.6288659793815</v>
+        <v>122.1063425370148</v>
       </c>
       <c r="E135" t="n">
-        <v>46.15365733922435</v>
+        <v>43.1437158196612</v>
       </c>
     </row>
     <row r="136">
@@ -3011,13 +3011,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5.276</v>
+        <v>5.198592257415787</v>
       </c>
       <c r="D136" t="n">
-        <v>149.8111832611833</v>
+        <v>135.6015039650031</v>
       </c>
       <c r="E136" t="n">
-        <v>54.13751803751801</v>
+        <v>52.01882219227622</v>
       </c>
     </row>
     <row r="137">
@@ -3030,13 +3030,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4.993951612903226</v>
+        <v>5.069017632241813</v>
       </c>
       <c r="D137" t="n">
-        <v>141.8907257616935</v>
+        <v>144.3041243670966</v>
       </c>
       <c r="E137" t="n">
-        <v>49.1494952180436</v>
+        <v>51.08056091683297</v>
       </c>
     </row>
     <row r="138">
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4.6417004048583</v>
+        <v>4.684744044602128</v>
       </c>
       <c r="D138" t="n">
-        <v>148.9966904440588</v>
+        <v>131.2284845863153</v>
       </c>
       <c r="E138" t="n">
-        <v>48.10423494634022</v>
+        <v>48.71276861900276</v>
       </c>
     </row>
     <row r="139">
@@ -3068,13 +3068,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5.57258064516129</v>
+        <v>5.590931989924433</v>
       </c>
       <c r="D139" t="n">
-        <v>119.5009571521668</v>
+        <v>124.7325148962427</v>
       </c>
       <c r="E139" t="n">
-        <v>43.90855560210398</v>
+        <v>41.49887336285325</v>
       </c>
     </row>
     <row r="140">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4.555555555555555</v>
+        <v>4.571718195641155</v>
       </c>
       <c r="D140" t="n">
-        <v>125.3913594822686</v>
+        <v>128.5401918574751</v>
       </c>
       <c r="E140" t="n">
-        <v>46.25621292287958</v>
+        <v>43.41594937134726</v>
       </c>
     </row>
     <row r="141">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4.803643724696356</v>
+        <v>4.807381193124368</v>
       </c>
       <c r="D141" t="n">
-        <v>132.9566632198211</v>
+        <v>129.7636163409672</v>
       </c>
       <c r="E141" t="n">
-        <v>46.80370798791851</v>
+        <v>49.16941557487565</v>
       </c>
     </row>
     <row r="142">
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4.686868686868687</v>
+        <v>4.822932521562659</v>
       </c>
       <c r="D142" t="n">
-        <v>123.094072033466</v>
+        <v>133.6529260806277</v>
       </c>
       <c r="E142" t="n">
-        <v>42.69119769119767</v>
+        <v>46.19647222386949</v>
       </c>
     </row>
     <row r="143">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5.038383838383838</v>
+        <v>4.867639657775541</v>
       </c>
       <c r="D143" t="n">
-        <v>144.4601862783681</v>
+        <v>146.1497388145602</v>
       </c>
       <c r="E143" t="n">
-        <v>53.67426064395759</v>
+        <v>51.04203658556954</v>
       </c>
     </row>
     <row r="144">
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4.613821138211383</v>
+        <v>4.661437246963563</v>
       </c>
       <c r="D144" t="n">
-        <v>137.865663018102</v>
+        <v>130.2368136249714</v>
       </c>
       <c r="E144" t="n">
-        <v>50.69693743474231</v>
+        <v>47.24338161838164</v>
       </c>
     </row>
     <row r="145">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4.743902439024391</v>
+        <v>4.799595141700405</v>
       </c>
       <c r="D145" t="n">
-        <v>133.3774457250067</v>
+        <v>137.8369788668371</v>
       </c>
       <c r="E145" t="n">
-        <v>46.49216524216524</v>
+        <v>47.92738890663994</v>
       </c>
     </row>
     <row r="146">
@@ -3201,13 +3201,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5.690763052208835</v>
+        <v>5.852483692925238</v>
       </c>
       <c r="D146" t="n">
-        <v>127.7149445824144</v>
+        <v>139.6094769087743</v>
       </c>
       <c r="E146" t="n">
-        <v>38.87384369312081</v>
+        <v>49.41790731429467</v>
       </c>
     </row>
     <row r="147">
@@ -3220,13 +3220,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4.846464646464646</v>
+        <v>4.97429435483871</v>
       </c>
       <c r="D147" t="n">
-        <v>124.5105455711516</v>
+        <v>124.904203659244</v>
       </c>
       <c r="E147" t="n">
-        <v>44.9519728307607</v>
+        <v>44.89348437181098</v>
       </c>
     </row>
     <row r="148">
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>4.549494949494949</v>
+        <v>4.464574898785425</v>
       </c>
       <c r="D148" t="n">
-        <v>122.1102802920985</v>
+        <v>131.937068779174</v>
       </c>
       <c r="E148" t="n">
-        <v>52.65279053157841</v>
+        <v>46.10327537959121</v>
       </c>
     </row>
     <row r="149">
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4.526209677419355</v>
+        <v>4.622909275215408</v>
       </c>
       <c r="D149" t="n">
-        <v>125.5288338453661</v>
+        <v>135.1007231772565</v>
       </c>
       <c r="E149" t="n">
-        <v>48.20948540706603</v>
+        <v>47.36328603535905</v>
       </c>
     </row>
     <row r="150">
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4.605691056910569</v>
+        <v>4.676813800101471</v>
       </c>
       <c r="D150" t="n">
-        <v>113.3275261324042</v>
+        <v>130.8961361092258</v>
       </c>
       <c r="E150" t="n">
-        <v>34.18021680216803</v>
+        <v>45.68814549788674</v>
       </c>
     </row>
     <row r="151">
@@ -3296,13 +3296,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4.971774193548387</v>
+        <v>4.914156626506024</v>
       </c>
       <c r="D151" t="n">
-        <v>151.5976966581805</v>
+        <v>131.4686888858575</v>
       </c>
       <c r="E151" t="n">
-        <v>52.9344143759466</v>
+        <v>46.70751910962753</v>
       </c>
     </row>
     <row r="152">
@@ -3315,13 +3315,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4.977642276422764</v>
+        <v>4.943462897526501</v>
       </c>
       <c r="D152" t="n">
-        <v>142.521029106395</v>
+        <v>135.3003410297705</v>
       </c>
       <c r="E152" t="n">
-        <v>51.10028860028859</v>
+        <v>46.10133402410032</v>
       </c>
     </row>
     <row r="153">
@@ -3334,13 +3334,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5.06036217303823</v>
+        <v>5.108585858585859</v>
       </c>
       <c r="D153" t="n">
-        <v>133.1740973089061</v>
+        <v>125.6215894094681</v>
       </c>
       <c r="E153" t="n">
-        <v>50.39842227970998</v>
+        <v>47.27156121095517</v>
       </c>
     </row>
     <row r="154">
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4.767820773930754</v>
+        <v>4.881877839475012</v>
       </c>
       <c r="D154" t="n">
-        <v>122.9311591327884</v>
+        <v>131.7917933768515</v>
       </c>
       <c r="E154" t="n">
-        <v>46.83274408325323</v>
+        <v>46.56622473381688</v>
       </c>
     </row>
     <row r="155">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5.253521126760563</v>
+        <v>5.246857717445953</v>
       </c>
       <c r="D155" t="n">
-        <v>128.8612851490115</v>
+        <v>124.4251865669662</v>
       </c>
       <c r="E155" t="n">
-        <v>52.82882777852598</v>
+        <v>45.10321949990127</v>
       </c>
     </row>
     <row r="156">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5.25050505050505</v>
+        <v>5.06341217916457</v>
       </c>
       <c r="D156" t="n">
-        <v>137.7130837736898</v>
+        <v>125.3172720585906</v>
       </c>
       <c r="E156" t="n">
-        <v>55.16997592755168</v>
+        <v>47.69291548355464</v>
       </c>
     </row>
     <row r="157">
@@ -3410,13 +3410,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3.186295503211992</v>
+        <v>3.225448785638859</v>
       </c>
       <c r="D157" t="n">
-        <v>115.335134767683</v>
+        <v>137.5580362380786</v>
       </c>
       <c r="E157" t="n">
-        <v>35.42367696543287</v>
+        <v>47.16230033019895</v>
       </c>
     </row>
     <row r="158">
@@ -3429,13 +3429,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5.577154308617234</v>
+        <v>5.707121364092277</v>
       </c>
       <c r="D158" t="n">
-        <v>135.8710650293816</v>
+        <v>124.3760098699916</v>
       </c>
       <c r="E158" t="n">
-        <v>44.55201890071629</v>
+        <v>41.73481566911857</v>
       </c>
     </row>
     <row r="159">
@@ -3448,13 +3448,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5.649298597194389</v>
+        <v>5.615615615615615</v>
       </c>
       <c r="D159" t="n">
-        <v>146.8977637815313</v>
+        <v>137.7824329213218</v>
       </c>
       <c r="E159" t="n">
-        <v>49.87211074385421</v>
+        <v>49.27067427067432</v>
       </c>
     </row>
     <row r="160">
@@ -3467,13 +3467,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6.632530120481928</v>
+        <v>6.549049049049049</v>
       </c>
       <c r="D160" t="n">
-        <v>127.4784731110032</v>
+        <v>131.0798986452579</v>
       </c>
       <c r="E160" t="n">
-        <v>40.39696358973466</v>
+        <v>47.0403326612477</v>
       </c>
     </row>
     <row r="161">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6.43</v>
+        <v>6.348044132397192</v>
       </c>
       <c r="D161" t="n">
-        <v>133.1094516594516</v>
+        <v>129.1741019025813</v>
       </c>
       <c r="E161" t="n">
-        <v>50.05577200577196</v>
+        <v>45.43655386182967</v>
       </c>
     </row>
     <row r="162">
@@ -3505,13 +3505,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>9.536</v>
+        <v>9.458</v>
       </c>
       <c r="D162" t="n">
-        <v>124.6997122158885</v>
+        <v>134.9861765921556</v>
       </c>
       <c r="E162" t="n">
-        <v>48.01904206904206</v>
+        <v>47.12461372047272</v>
       </c>
     </row>
     <row r="163">
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>9.257999999999999</v>
+        <v>9.2605</v>
       </c>
       <c r="D163" t="n">
-        <v>133.6949392884377</v>
+        <v>132.2771041952542</v>
       </c>
       <c r="E163" t="n">
-        <v>51.8518645956726</v>
+        <v>46.62073388213087</v>
       </c>
     </row>
     <row r="164">
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6.402</v>
+        <v>6.374561842764146</v>
       </c>
       <c r="D164" t="n">
-        <v>144.7615884115884</v>
+        <v>137.7846170410014</v>
       </c>
       <c r="E164" t="n">
-        <v>51.49466089466085</v>
+        <v>48.06926923852315</v>
       </c>
     </row>
     <row r="165">
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7.934</v>
+        <v>7.690845422711356</v>
       </c>
       <c r="D165" t="n">
-        <v>127.159131511763</v>
+        <v>131.9727435035086</v>
       </c>
       <c r="E165" t="n">
-        <v>47.96533086796241</v>
+        <v>44.62827484338234</v>
       </c>
     </row>
     <row r="166">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6.06813627254509</v>
+        <v>5.985449071751129</v>
       </c>
       <c r="D166" t="n">
-        <v>134.0757995066612</v>
+        <v>131.8824190249176</v>
       </c>
       <c r="E166" t="n">
-        <v>49.36648188151192</v>
+        <v>45.36133153794973</v>
       </c>
     </row>
     <row r="167">
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5.424547283702213</v>
+        <v>5.408542713567839</v>
       </c>
       <c r="D167" t="n">
-        <v>141.8124911082657</v>
+        <v>134.7032169393977</v>
       </c>
       <c r="E167" t="n">
-        <v>50.19815864886283</v>
+        <v>48.81663562568085</v>
       </c>
     </row>
     <row r="168">
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4.62474645030426</v>
+        <v>4.603553299492386</v>
       </c>
       <c r="D168" t="n">
-        <v>145.536793609816</v>
+        <v>127.240039993847</v>
       </c>
       <c r="E168" t="n">
-        <v>54.43840022947527</v>
+        <v>44.92349162399924</v>
       </c>
     </row>
     <row r="169">
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6.799599198396794</v>
+        <v>6.930930930930931</v>
       </c>
       <c r="D169" t="n">
-        <v>138.0954438569669</v>
+        <v>131.4732598637825</v>
       </c>
       <c r="E169" t="n">
-        <v>48.34907354947432</v>
+        <v>48.04783505763896</v>
       </c>
     </row>
     <row r="170">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5.463709677419355</v>
+        <v>5.512820512820513</v>
       </c>
       <c r="D170" t="n">
-        <v>129.3299218702444</v>
+        <v>119.6789998449124</v>
       </c>
       <c r="E170" t="n">
-        <v>41.99143710232419</v>
+        <v>43.05296401827322</v>
       </c>
     </row>
     <row r="171">
@@ -3676,13 +3676,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5.783567134268537</v>
+        <v>5.875062719518314</v>
       </c>
       <c r="D171" t="n">
-        <v>122.1869591108067</v>
+        <v>135.5734692914823</v>
       </c>
       <c r="E171" t="n">
-        <v>40.26718660987198</v>
+        <v>45.32648039923504</v>
       </c>
     </row>
     <row r="172">
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5.217741935483871</v>
+        <v>5.20523138832998</v>
       </c>
       <c r="D172" t="n">
-        <v>126.2451706000092</v>
+        <v>132.4550589138114</v>
       </c>
       <c r="E172" t="n">
-        <v>45.65434005958198</v>
+        <v>48.55851587491424</v>
       </c>
     </row>
     <row r="173">
@@ -3714,13 +3714,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5.022177419354839</v>
+        <v>5.036180904522613</v>
       </c>
       <c r="D173" t="n">
-        <v>116.0915025834381</v>
+        <v>125.7313122388497</v>
       </c>
       <c r="E173" t="n">
-        <v>42.59632616487456</v>
+        <v>44.35171193965162</v>
       </c>
     </row>
     <row r="174">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5.186234817813765</v>
+        <v>5.120342396777442</v>
       </c>
       <c r="D174" t="n">
-        <v>121.4158648369174</v>
+        <v>117.209879747644</v>
       </c>
       <c r="E174" t="n">
-        <v>36.89680202838098</v>
+        <v>43.14213396539682</v>
       </c>
     </row>
     <row r="175">
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4.94949494949495</v>
+        <v>4.977307110438729</v>
       </c>
       <c r="D175" t="n">
-        <v>134.3966359117874</v>
+        <v>125.6972981632587</v>
       </c>
       <c r="E175" t="n">
-        <v>48.61085603509844</v>
+        <v>46.70875434869386</v>
       </c>
     </row>
     <row r="176">
@@ -3771,13 +3771,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7.942</v>
+        <v>7.765882941470735</v>
       </c>
       <c r="D176" t="n">
-        <v>141.4259914921679</v>
+        <v>147.9206674256406</v>
       </c>
       <c r="E176" t="n">
-        <v>54.38827920445567</v>
+        <v>50.81308010015011</v>
       </c>
     </row>
     <row r="177">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6.522</v>
+        <v>6.614307153576789</v>
       </c>
       <c r="D177" t="n">
-        <v>137.540132090132</v>
+        <v>137.5319252298182</v>
       </c>
       <c r="E177" t="n">
-        <v>46.22207792207791</v>
+        <v>49.38976959766768</v>
       </c>
     </row>
     <row r="178">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>8.256</v>
+        <v>8.480499999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>133.0765953001247</v>
+        <v>133.6180823669791</v>
       </c>
       <c r="E178" t="n">
-        <v>50.41255133755129</v>
+        <v>49.12219300307529</v>
       </c>
     </row>
     <row r="179">
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5.154618473895583</v>
+        <v>5.405133366884751</v>
       </c>
       <c r="D179" t="n">
-        <v>138.2722810433654</v>
+        <v>129.7766037574793</v>
       </c>
       <c r="E179" t="n">
-        <v>52.42086672809563</v>
+        <v>47.01616814097947</v>
       </c>
     </row>
     <row r="180">
@@ -3847,13 +3847,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5.480885311871227</v>
+        <v>5.340060544904137</v>
       </c>
       <c r="D180" t="n">
-        <v>130.2853920057139</v>
+        <v>128.093842473257</v>
       </c>
       <c r="E180" t="n">
-        <v>50.22450721645892</v>
+        <v>46.98428183544229</v>
       </c>
     </row>
     <row r="181">
@@ -3866,13 +3866,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.615230460921843</v>
+        <v>6.683867735470942</v>
       </c>
       <c r="D181" t="n">
-        <v>127.6274529693131</v>
+        <v>132.7777905683714</v>
       </c>
       <c r="E181" t="n">
-        <v>46.88384983976164</v>
+        <v>47.25397278628742</v>
       </c>
     </row>
     <row r="182">
@@ -3885,13 +3885,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5.523046092184368</v>
+        <v>5.572292191435769</v>
       </c>
       <c r="D182" t="n">
-        <v>133.8840351365402</v>
+        <v>127.4170274170272</v>
       </c>
       <c r="E182" t="n">
-        <v>44.98088751595765</v>
+        <v>45.36407617012149</v>
       </c>
     </row>
     <row r="183">
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5.461847389558233</v>
+        <v>5.459065796082371</v>
       </c>
       <c r="D183" t="n">
-        <v>129.5974161938017</v>
+        <v>125.6502120012917</v>
       </c>
       <c r="E183" t="n">
-        <v>45.19994173608631</v>
+        <v>46.74097318497122</v>
       </c>
     </row>
     <row r="184">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5.314</v>
+        <v>5.13855421686747</v>
       </c>
       <c r="D184" t="n">
-        <v>129.5491064491064</v>
+        <v>143.2291269640668</v>
       </c>
       <c r="E184" t="n">
-        <v>46.22857142857143</v>
+        <v>53.96977520471495</v>
       </c>
     </row>
     <row r="185">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4.794715447154472</v>
+        <v>4.799798285426122</v>
       </c>
       <c r="D185" t="n">
-        <v>133.4981639859689</v>
+        <v>138.8901623394815</v>
       </c>
       <c r="E185" t="n">
-        <v>46.16336125482465</v>
+        <v>51.78024754424147</v>
       </c>
     </row>
     <row r="186">
@@ -3961,13 +3961,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7.671342685370742</v>
+        <v>7.438719359679839</v>
       </c>
       <c r="D186" t="n">
-        <v>124.3595229478761</v>
+        <v>132.765850532822</v>
       </c>
       <c r="E186" t="n">
-        <v>44.6724264772125</v>
+        <v>48.68388309483856</v>
       </c>
     </row>
     <row r="187">
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4.885311871227364</v>
+        <v>4.949041372351161</v>
       </c>
       <c r="D187" t="n">
-        <v>136.7576030050879</v>
+        <v>126.2429856274456</v>
       </c>
       <c r="E187" t="n">
-        <v>45.0527339863356</v>
+        <v>45.73112026441996</v>
       </c>
     </row>
     <row r="188">
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5.022177419354839</v>
+        <v>5.271859296482412</v>
       </c>
       <c r="D188" t="n">
-        <v>126.1919532080822</v>
+        <v>121.4993005319636</v>
       </c>
       <c r="E188" t="n">
-        <v>42.89474526369688</v>
+        <v>43.27430804817743</v>
       </c>
     </row>
     <row r="189">
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4.851106639839034</v>
+        <v>4.98287153652393</v>
       </c>
       <c r="D189" t="n">
-        <v>132.0118848287862</v>
+        <v>142.8165397434918</v>
       </c>
       <c r="E189" t="n">
-        <v>49.07854832402115</v>
+        <v>49.69688441980639</v>
       </c>
     </row>
     <row r="190">
@@ -4037,13 +4037,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4.618181818181818</v>
+        <v>4.725480283114257</v>
       </c>
       <c r="D190" t="n">
-        <v>137.9597787173544</v>
+        <v>135.5340382008733</v>
       </c>
       <c r="E190" t="n">
-        <v>49.89245322578654</v>
+        <v>51.37008536907425</v>
       </c>
     </row>
     <row r="191">
@@ -4056,13 +4056,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6.81563126252505</v>
+        <v>6.764382191095548</v>
       </c>
       <c r="D191" t="n">
-        <v>137.8229966818909</v>
+        <v>135.8979226640996</v>
       </c>
       <c r="E191" t="n">
-        <v>47.16157812350198</v>
+        <v>50.71374209693369</v>
       </c>
     </row>
     <row r="192">
@@ -4075,13 +4075,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5.186991869918699</v>
+        <v>5.231001509813789</v>
       </c>
       <c r="D192" t="n">
-        <v>138.7842058573765</v>
+        <v>126.4099439215635</v>
       </c>
       <c r="E192" t="n">
-        <v>55.45160575648379</v>
+        <v>47.99739627369216</v>
       </c>
     </row>
     <row r="193">
@@ -4094,13 +4094,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4.936</v>
+        <v>4.987927565392354</v>
       </c>
       <c r="D193" t="n">
-        <v>144.5898268398268</v>
+        <v>129.2395300317835</v>
       </c>
       <c r="E193" t="n">
-        <v>47.39292929292928</v>
+        <v>45.89437781087682</v>
       </c>
     </row>
     <row r="194">
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6.807228915662651</v>
+        <v>6.825237856785177</v>
       </c>
       <c r="D194" t="n">
-        <v>128.0310552900914</v>
+        <v>133.3372436276791</v>
       </c>
       <c r="E194" t="n">
-        <v>44.29198924680852</v>
+        <v>44.94821792017584</v>
       </c>
     </row>
     <row r="195">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>8.488977955911823</v>
+        <v>8.594797398699349</v>
       </c>
       <c r="D195" t="n">
-        <v>137.6489703467187</v>
+        <v>132.0109503264933</v>
       </c>
       <c r="E195" t="n">
-        <v>47.86040138362427</v>
+        <v>46.28803706967006</v>
       </c>
     </row>
     <row r="196">
@@ -4151,13 +4151,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>9.226000000000001</v>
+        <v>9.5815</v>
       </c>
       <c r="D196" t="n">
-        <v>140.4922859819918</v>
+        <v>128.1889882778038</v>
       </c>
       <c r="E196" t="n">
-        <v>44.54708983826629</v>
+        <v>46.00338908382633</v>
       </c>
     </row>
   </sheetData>
